--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="401"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="279"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Xiang Yang</author>
+  </authors>
+  <commentList>
+    <comment ref="CS5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Xiang Yang:最大高度差定义为承靠内最大高度差，非矢高
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
   <si>
     <t>数据关联总表</t>
   </si>
@@ -34,181 +58,253 @@
     <t>材料</t>
   </si>
   <si>
+    <t>项目量产工艺条件数据</t>
+  </si>
+  <si>
+    <t>项目量产成型结果数据</t>
+  </si>
+  <si>
+    <t>项目量产结构数据</t>
+  </si>
+  <si>
+    <t>模流工艺条件</t>
+  </si>
+  <si>
+    <t>实际工艺条件</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>偏心合格率</t>
+  </si>
+  <si>
+    <t>坎合圆度</t>
+  </si>
+  <si>
+    <t>外径</t>
+  </si>
+  <si>
+    <t>平面度</t>
+  </si>
+  <si>
+    <t>分割位均值</t>
+  </si>
+  <si>
+    <t>白片面型</t>
+  </si>
+  <si>
+    <t>镀膜片面型</t>
+  </si>
+  <si>
+    <t>镀膜趋势</t>
+  </si>
+  <si>
+    <t>镀膜片模拟结果</t>
+  </si>
+  <si>
+    <t>毛边(um)</t>
+  </si>
+  <si>
+    <t>熔接线（黄光灯下是否存在）</t>
+  </si>
+  <si>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>光学区域</t>
+  </si>
+  <si>
+    <t>整体部分</t>
+  </si>
+  <si>
+    <t>机构部分</t>
+  </si>
+  <si>
+    <t>组立图</t>
+  </si>
+  <si>
     <t>温度</t>
   </si>
   <si>
-    <t>射速</t>
-  </si>
-  <si>
-    <t>VP切换</t>
+    <t>射速(mm/s)</t>
+  </si>
+  <si>
+    <t>VP压力(Kgf/cm2)</t>
   </si>
   <si>
     <t>保压设置</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VP压力(Kgf/cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>顶出设置</t>
   </si>
   <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>锁模力</t>
+    <t>冷却时间(s)</t>
+  </si>
+  <si>
+    <t>锁模力(Ton)</t>
   </si>
   <si>
     <t>钝化工艺</t>
   </si>
   <si>
-    <t>尺寸</t>
-  </si>
-  <si>
-    <t>偏心合格率</t>
-  </si>
-  <si>
-    <t>坎合圆度</t>
-  </si>
-  <si>
-    <t>外径</t>
-  </si>
-  <si>
-    <t>平面度</t>
-  </si>
-  <si>
-    <t>分割位均值</t>
-  </si>
-  <si>
-    <t>白片面型</t>
-  </si>
-  <si>
-    <t>镀膜片面型</t>
-  </si>
-  <si>
-    <t>镀膜趋势</t>
-  </si>
-  <si>
-    <t>镀膜片模拟结果</t>
-  </si>
-  <si>
-    <t>毛边</t>
-  </si>
-  <si>
-    <t>熔接线（黄光灯下是否存在）</t>
-  </si>
-  <si>
-    <t>外观</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>光学区域</t>
-  </si>
-  <si>
-    <t>整体部分</t>
-  </si>
-  <si>
-    <t>机构部分</t>
-  </si>
-  <si>
-    <t>组立图</t>
-  </si>
-  <si>
-    <t>模温</t>
-  </si>
-  <si>
-    <t>料温</t>
-  </si>
-  <si>
-    <t>保压1</t>
-  </si>
-  <si>
-    <t>保压2</t>
-  </si>
-  <si>
-    <t>保压3</t>
-  </si>
-  <si>
-    <t>保压4</t>
-  </si>
-  <si>
-    <t>保压5</t>
-  </si>
-  <si>
-    <t>保压6</t>
-  </si>
-  <si>
-    <t>保时1</t>
-  </si>
-  <si>
-    <t>保时2</t>
-  </si>
-  <si>
-    <t>保时3</t>
-  </si>
-  <si>
-    <t>保时4</t>
-  </si>
-  <si>
-    <t>保时5</t>
-  </si>
-  <si>
-    <t>保时6</t>
-  </si>
-  <si>
-    <t>保压速度</t>
-  </si>
-  <si>
-    <t>压板位置</t>
-  </si>
-  <si>
-    <t>开模速度</t>
-  </si>
-  <si>
-    <t>顶出速度</t>
-  </si>
-  <si>
-    <t>芯厚</t>
-  </si>
-  <si>
-    <t>芯厚极差</t>
-  </si>
-  <si>
-    <t>R1矢高</t>
-  </si>
-  <si>
-    <t>R1矢高极差</t>
-  </si>
-  <si>
-    <t>R2矢高</t>
-  </si>
-  <si>
-    <t>R2矢高极差</t>
-  </si>
-  <si>
-    <t>外径偏心</t>
-  </si>
-  <si>
-    <t>坎合偏心</t>
-  </si>
-  <si>
-    <t>面间偏心</t>
+    <t>模温(℃)</t>
+  </si>
+  <si>
+    <t>料温(℃)</t>
+  </si>
+  <si>
+    <t>保压1(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压1时间(s)</t>
+  </si>
+  <si>
+    <t>保压2(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压2时间(s)</t>
+  </si>
+  <si>
+    <t>保压3(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压3时间(s)</t>
+  </si>
+  <si>
+    <t>保压4(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压4时间(s)</t>
+  </si>
+  <si>
+    <t>保压5(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压5时间(s)</t>
+  </si>
+  <si>
+    <t>保压6(Kgf/cm2)</t>
+  </si>
+  <si>
+    <t>保压6时间(s)</t>
+  </si>
+  <si>
+    <t>保压速度(mm/s)</t>
+  </si>
+  <si>
+    <t>压板位置(mm)</t>
+  </si>
+  <si>
+    <t>开模速度(mm/s)</t>
+  </si>
+  <si>
+    <t>顶出速度(mm/s)</t>
+  </si>
+  <si>
+    <t>芯厚(um)</t>
+  </si>
+  <si>
+    <t>芯厚极差(um)</t>
+  </si>
+  <si>
+    <t>R1矢高(um)</t>
+  </si>
+  <si>
+    <t>R1矢高极差(um)</t>
+  </si>
+  <si>
+    <t>R2矢高(um)</t>
+  </si>
+  <si>
+    <t>R2矢高极差(um)</t>
+  </si>
+  <si>
+    <t>外径偏心(%/规格）</t>
+  </si>
+  <si>
+    <t>坎合偏心(%/规格）</t>
+  </si>
+  <si>
+    <t>面间偏心(%/规格）</t>
   </si>
   <si>
     <t>退火制程</t>
   </si>
   <si>
-    <t>外径均值</t>
-  </si>
-  <si>
-    <t>外径极差</t>
-  </si>
-  <si>
-    <t>外径圆度</t>
-  </si>
-  <si>
-    <t>外径收缩率</t>
-  </si>
-  <si>
-    <t>外径粗糙度</t>
+    <t>BP坎合圆度(um)</t>
+  </si>
+  <si>
+    <t>DMP坎合圆度(um)</t>
+  </si>
+  <si>
+    <t>外径均值(um)</t>
+  </si>
+  <si>
+    <t>外径极差(um)</t>
+  </si>
+  <si>
+    <t>外径圆度(um)</t>
+  </si>
+  <si>
+    <t>外径收缩率(‰)</t>
+  </si>
+  <si>
+    <t>外径粗糙度(um)</t>
+  </si>
+  <si>
+    <t>R1(um)</t>
+  </si>
+  <si>
+    <t>R2(um)</t>
+  </si>
+  <si>
+    <t>R1(nm)</t>
+  </si>
+  <si>
+    <t>R2(nm)</t>
+  </si>
+  <si>
+    <t>全穴一致性(nm)</t>
+  </si>
+  <si>
+    <t>最大AS(nm)</t>
+  </si>
+  <si>
+    <t>5+3+3稳定性(nm)</t>
   </si>
   <si>
     <t>R1</t>
@@ -217,15 +313,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>5+3+3稳定性</t>
-  </si>
-  <si>
-    <t>全穴一致性</t>
-  </si>
-  <si>
-    <t>最大AS</t>
-  </si>
-  <si>
     <t>R1&amp;R2</t>
   </si>
   <si>
@@ -235,9 +322,6 @@
     <t>外观图片</t>
   </si>
   <si>
-    <t>芯厚(um)</t>
-  </si>
-  <si>
     <t>最厚壁厚(um)</t>
   </si>
   <si>
@@ -268,10 +352,68 @@
     <t>整体径厚比</t>
   </si>
   <si>
-    <t>最大角度R1</t>
-  </si>
-  <si>
-    <t>最大角度R2</t>
+    <t>最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>最大角度R2(°)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大高度差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大高度差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
   </si>
   <si>
     <t>R1终端到R2坎合根部距离(um)</t>
@@ -286,16 +428,16 @@
     <t>机构径厚比</t>
   </si>
   <si>
-    <t>R1坎合角度</t>
-  </si>
-  <si>
-    <t>R1坎合高度</t>
-  </si>
-  <si>
-    <t>R2坎合角度</t>
-  </si>
-  <si>
-    <t>R2坎合高度</t>
+    <t>R1坎合角度(°)</t>
+  </si>
+  <si>
+    <t>R1坎合高度(um)</t>
+  </si>
+  <si>
+    <t>R2坎合角度(°)</t>
+  </si>
+  <si>
+    <t>R2坎合高度(um)</t>
   </si>
   <si>
     <t>R1消光位置（粗糙度SRTM）</t>
@@ -317,7 +459,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,20 +475,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -496,8 +659,27 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +688,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -691,7 +879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -709,6 +897,63 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -817,165 +1062,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1326,25 +1613,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CL3"/>
+  <dimension ref="A1:DG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CI17" sqref="CI17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="73" max="73" width="14.75" customWidth="1"/>
-    <col min="74" max="74" width="12.125" customWidth="1"/>
-    <col min="79" max="79" width="15.5" customWidth="1"/>
-    <col min="80" max="80" width="12.25" customWidth="1"/>
-    <col min="81" max="81" width="12.625" customWidth="1"/>
-    <col min="87" max="87" width="12.75" customWidth="1"/>
-    <col min="88" max="88" width="14.375" customWidth="1"/>
-    <col min="89" max="89" width="15.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:90">
+    <row r="1" ht="22.5" spans="1:110">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,8 +1714,28 @@
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
     </row>
-    <row r="2" ht="34" customHeight="1" spans="1:90">
+    <row r="2" ht="22.5" spans="1:111">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1458,15 +1755,9 @@
         <v>6</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1479,398 +1770,733 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3"/>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="16"/>
+      <c r="DG2" s="17"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:110">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2" t="s">
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2" t="s">
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2" t="s">
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2" t="s">
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2" t="s">
+      <c r="BX3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2" t="s">
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2" t="s">
+      <c r="CB3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="CC3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2" t="s">
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="CF3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2" t="s">
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+      <c r="DE3" s="14"/>
+      <c r="DF3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4" t="s">
+    </row>
+    <row r="4" ht="18.75" spans="1:110">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="4"/>
-      <c r="CG2" s="4"/>
-      <c r="CH2" s="4"/>
-      <c r="CI2" s="4"/>
-      <c r="CJ2" s="4"/>
-      <c r="CK2" s="4"/>
-      <c r="CL2" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="5"/>
+      <c r="BY4" s="5"/>
+      <c r="BZ4" s="5"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="13"/>
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CL4" s="14"/>
+      <c r="CM4" s="14"/>
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14"/>
+      <c r="CT4" s="14"/>
+      <c r="CU4" s="14"/>
+      <c r="CV4" s="14"/>
+      <c r="CW4" s="14"/>
+      <c r="CX4" s="14"/>
+      <c r="CY4" s="14"/>
+      <c r="CZ4" s="14"/>
+      <c r="DA4" s="14"/>
+      <c r="DB4" s="14"/>
+      <c r="DC4" s="14"/>
+      <c r="DD4" s="14"/>
+      <c r="DE4" s="14"/>
+      <c r="DF4" s="18"/>
     </row>
-    <row r="3" ht="74" customHeight="1" spans="1:90">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="3" t="s">
+    <row r="5" ht="57" spans="1:110">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="K5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="L5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="M5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="N5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="O5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="P5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Q5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="R5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="S5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="2" t="s">
+      <c r="T5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="U5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="V5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AM5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AN5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AO5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AT5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AU5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AV5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AW5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AX5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AY5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AZ5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="BA5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="BB5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="BC5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW3" s="2" t="s">
+      <c r="BD5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="BE5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BF5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AZ3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BG5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2" t="s">
+      <c r="BH5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BI5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="4" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BK5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BL5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BN5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BO5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BP5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BQ5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BR5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BS5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BY5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BZ5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="CD5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="CG5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="CA3" s="4" t="s">
+      <c r="CH5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="CI5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CC3" s="4" t="s">
+      <c r="CJ5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CD3" s="4" t="s">
+      <c r="CK5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="CE3" s="4" t="s">
+      <c r="CL5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CF3" s="4" t="s">
+      <c r="CM5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CG3" s="4" t="s">
+      <c r="CN5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CH3" s="4" t="s">
+      <c r="CO5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="CI3" s="4" t="s">
+      <c r="CP5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="CJ3" s="4" t="s">
+      <c r="CQ5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="CK3" s="4" t="s">
+      <c r="CR5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="CL3" s="4"/>
+      <c r="CS5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="CT5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="CU5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="CW5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="CX5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="CY5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="CZ5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="DA5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="DB5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="DC5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="DE5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="DF5" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A1:CL1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BK2:BL2"/>
-    <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="BS2:BZ2"/>
-    <mergeCell ref="CA2:CK2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="BE2:BE3"/>
-    <mergeCell ref="BI2:BI3"/>
-    <mergeCell ref="BJ2:BJ3"/>
-    <mergeCell ref="BM2:BM3"/>
-    <mergeCell ref="CL2:CL3"/>
+  <mergeCells count="41">
+    <mergeCell ref="A1:DF1"/>
+    <mergeCell ref="F2:AR2"/>
+    <mergeCell ref="AS2:CE2"/>
+    <mergeCell ref="CF2:DF2"/>
+    <mergeCell ref="F3:U3"/>
+    <mergeCell ref="V3:AR3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="Z4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AP4:AP5"/>
+    <mergeCell ref="AQ4:AQ5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="BW3:BW5"/>
+    <mergeCell ref="CA3:CA5"/>
+    <mergeCell ref="CB3:CB5"/>
+    <mergeCell ref="CE3:CE5"/>
+    <mergeCell ref="DF3:DF5"/>
+    <mergeCell ref="AS3:AX4"/>
+    <mergeCell ref="AY3:BA4"/>
+    <mergeCell ref="BB3:BD4"/>
+    <mergeCell ref="BE3:BI4"/>
+    <mergeCell ref="BJ3:BK4"/>
+    <mergeCell ref="BL3:BM4"/>
+    <mergeCell ref="BN3:BR4"/>
+    <mergeCell ref="BS3:BV4"/>
+    <mergeCell ref="BX3:BZ4"/>
+    <mergeCell ref="CC3:CD4"/>
+    <mergeCell ref="CF3:CJ4"/>
+    <mergeCell ref="CK3:CT4"/>
+    <mergeCell ref="CU3:DE4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
   <si>
     <t>数据关联总表</t>
   </si>
@@ -67,6 +67,12 @@
     <t>项目量产结构数据</t>
   </si>
   <si>
+    <t>项目量产模流数据</t>
+  </si>
+  <si>
+    <t>项目量产模具数据</t>
+  </si>
+  <si>
     <t>模流工艺条件</t>
   </si>
   <si>
@@ -125,6 +131,79 @@
   </si>
   <si>
     <t>组立图</t>
+  </si>
+  <si>
+    <t>模具类型</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模流外径收缩率(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>流动前沿温度(℃)</t>
+  </si>
+  <si>
+    <t>VP切换压力(MPa)</t>
+  </si>
+  <si>
+    <t>模拟熔接线长度(mm)</t>
+  </si>
+  <si>
+    <t>平均体积收缩率差值</t>
+  </si>
+  <si>
+    <t>模拟面型</t>
+  </si>
+  <si>
+    <t>竞品信息</t>
+  </si>
+  <si>
+    <t>模仁钝化工艺</t>
+  </si>
+  <si>
+    <t>流道类型</t>
+  </si>
+  <si>
+    <t>流道尺寸（直径）</t>
+  </si>
+  <si>
+    <t>流道排气</t>
+  </si>
+  <si>
+    <t>浇口类型</t>
+  </si>
+  <si>
+    <t>浇口尺寸</t>
+  </si>
+  <si>
+    <t>开模方式</t>
   </si>
   <si>
     <t>温度</t>
@@ -448,6 +527,57 @@
   <si>
     <t>外径消光位置（粗糙度SRTM）</t>
   </si>
+  <si>
+    <t>整体(%)</t>
+  </si>
+  <si>
+    <t>R1有效径(%)</t>
+  </si>
+  <si>
+    <t>R2有效径(%)</t>
+  </si>
+  <si>
+    <t>R1坎合(%)</t>
+  </si>
+  <si>
+    <t>R2坎合(%)</t>
+  </si>
+  <si>
+    <t>竞品名称</t>
+  </si>
+  <si>
+    <t>竞品链接</t>
+  </si>
+  <si>
+    <t>竞品组立图</t>
+  </si>
+  <si>
+    <t>一级分流道(mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二级分流道(mm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">三级分流道(mm) </t>
+  </si>
+  <si>
+    <t>分型面(um)</t>
+  </si>
+  <si>
+    <t>分割位(um)</t>
+  </si>
+  <si>
+    <t>宽度(mm)</t>
+  </si>
+  <si>
+    <t>厚度(mm)</t>
+  </si>
+  <si>
+    <t>R1面厚度(mm)</t>
+  </si>
+  <si>
+    <t>R2面厚度(mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +589,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +790,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -679,18 +815,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -879,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -891,9 +1021,18 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -919,6 +1058,76 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -936,13 +1145,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -953,7 +1160,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1065,10 +1274,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,16 +1286,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1098,70 +1307,73 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,97 +1385,169 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1613,227 +1897,264 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DG5"/>
+  <dimension ref="A1:EH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="128" max="128" width="15" customWidth="1"/>
+    <col min="129" max="129" width="15.25" customWidth="1"/>
+    <col min="130" max="130" width="15.375" customWidth="1"/>
+    <col min="131" max="131" width="13.75" customWidth="1"/>
+    <col min="132" max="132" width="14.125" customWidth="1"/>
+    <col min="136" max="136" width="12.75" customWidth="1"/>
+    <col min="137" max="137" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:110">
+    <row r="1" ht="22.5" spans="1:138">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+      <c r="CT1" s="2"/>
+      <c r="CU1" s="2"/>
+      <c r="CV1" s="2"/>
+      <c r="CW1" s="2"/>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+      <c r="DF1" s="2"/>
+      <c r="DG1" s="2"/>
+      <c r="DH1" s="2"/>
+      <c r="DI1" s="2"/>
+      <c r="DJ1" s="2"/>
+      <c r="DK1" s="2"/>
+      <c r="DL1" s="2"/>
+      <c r="DM1" s="2"/>
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2"/>
+      <c r="DP1" s="2"/>
+      <c r="DQ1" s="2"/>
+      <c r="DR1" s="2"/>
+      <c r="DS1" s="2"/>
+      <c r="DT1" s="2"/>
+      <c r="DU1" s="2"/>
+      <c r="DV1" s="2"/>
+      <c r="DW1" s="2"/>
+      <c r="DX1" s="2"/>
+      <c r="DY1" s="2"/>
+      <c r="DZ1" s="2"/>
+      <c r="EA1" s="2"/>
+      <c r="EB1" s="2"/>
+      <c r="EC1" s="2"/>
+      <c r="ED1" s="2"/>
+      <c r="EE1" s="2"/>
+      <c r="EF1" s="2"/>
+      <c r="EG1" s="2"/>
+      <c r="EH1" s="40"/>
     </row>
-    <row r="2" ht="22.5" spans="1:111">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="20.25" spans="1:138">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="11" t="s">
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4"/>
+      <c r="CF2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="CG2" s="12"/>
@@ -1861,134 +2182,165 @@
       <c r="DC2" s="12"/>
       <c r="DD2" s="12"/>
       <c r="DE2" s="12"/>
-      <c r="DF2" s="16"/>
-      <c r="DG2" s="17"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="DH2" s="17"/>
+      <c r="DI2" s="17"/>
+      <c r="DJ2" s="17"/>
+      <c r="DK2" s="17"/>
+      <c r="DL2" s="17"/>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="17"/>
+      <c r="DO2" s="17"/>
+      <c r="DP2" s="17"/>
+      <c r="DQ2" s="17"/>
+      <c r="DR2" s="17"/>
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="17"/>
+      <c r="DU2" s="17"/>
+      <c r="DV2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12"/>
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12"/>
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
     </row>
-    <row r="3" ht="18.75" spans="1:110">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5" t="s">
+    <row r="3" ht="18.75" spans="1:138">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5" t="s">
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5" t="s">
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5" t="s">
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5" t="s">
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5" t="s">
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5" t="s">
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="10" t="s">
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="BX3" s="5" t="s">
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="4" t="s">
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="CB3" s="4" t="s">
+      <c r="BX3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="CC3" s="5" t="s">
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CD3" s="5"/>
+      <c r="CB3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="CD3" s="6"/>
       <c r="CE3" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CF3" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CG3" s="14"/>
       <c r="CH3" s="14"/>
       <c r="CI3" s="14"/>
       <c r="CJ3" s="14"/>
       <c r="CK3" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CL3" s="14"/>
       <c r="CM3" s="14"/>
@@ -2000,7 +2352,7 @@
       <c r="CS3" s="14"/>
       <c r="CT3" s="14"/>
       <c r="CU3" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CV3" s="14"/>
       <c r="CW3" s="14"/>
@@ -2013,116 +2365,174 @@
       <c r="DD3" s="14"/>
       <c r="DE3" s="14"/>
       <c r="DF3" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="DG3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="DH3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="DI3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="DJ3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="DK3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="DL3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM3" s="23"/>
+      <c r="DN3" s="23"/>
+      <c r="DO3" s="23"/>
+      <c r="DP3" s="24"/>
+      <c r="DQ3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="DR3" s="24"/>
+      <c r="DS3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT3" s="23"/>
+      <c r="DU3" s="23"/>
+      <c r="DV3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="DW3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="DX3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="DY3" s="33"/>
+      <c r="DZ3" s="34"/>
+      <c r="EA3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="EB3" s="34"/>
+      <c r="EC3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="ED3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="EE3" s="33"/>
+      <c r="EF3" s="33"/>
+      <c r="EG3" s="34"/>
+      <c r="EH3" s="41" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:110">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="10"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
+    <row r="4" ht="18.75" spans="1:138">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="9"/>
+      <c r="X4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="11"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="5"/>
+      <c r="CB4" s="5"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
       <c r="CE4" s="13"/>
       <c r="CF4" s="14"/>
       <c r="CG4" s="14"/>
@@ -2151,311 +2561,407 @@
       <c r="DD4" s="14"/>
       <c r="DE4" s="14"/>
       <c r="DF4" s="18"/>
+      <c r="DG4" s="20"/>
+      <c r="DH4" s="20"/>
+      <c r="DI4" s="20"/>
+      <c r="DJ4" s="20"/>
+      <c r="DK4" s="20"/>
+      <c r="DL4" s="25"/>
+      <c r="DM4" s="26"/>
+      <c r="DN4" s="26"/>
+      <c r="DO4" s="26"/>
+      <c r="DP4" s="27"/>
+      <c r="DQ4" s="25"/>
+      <c r="DR4" s="27"/>
+      <c r="DS4" s="25"/>
+      <c r="DT4" s="26"/>
+      <c r="DU4" s="26"/>
+      <c r="DV4" s="28"/>
+      <c r="DW4" s="29"/>
+      <c r="DX4" s="31"/>
+      <c r="DY4" s="36"/>
+      <c r="DZ4" s="37"/>
+      <c r="EA4" s="31"/>
+      <c r="EB4" s="37"/>
+      <c r="EC4" s="38"/>
+      <c r="ED4" s="31"/>
+      <c r="EE4" s="36"/>
+      <c r="EF4" s="36"/>
+      <c r="EG4" s="37"/>
+      <c r="EH4" s="42"/>
     </row>
-    <row r="5" ht="57" spans="1:110">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO5" s="9" t="s">
+    <row r="5" ht="57" spans="1:138">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="K5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="L5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="M5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="N5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AY5" s="4" t="s">
+      <c r="O5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="P5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="Q5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BB5" s="4" t="s">
+      <c r="R5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="S5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="T5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="BE5" s="4" t="s">
+      <c r="U5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="BF5" s="4" t="s">
+      <c r="V5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="AM5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BH5" s="4" t="s">
+      <c r="AN5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="BI5" s="4" t="s">
+      <c r="AO5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="BJ5" s="4" t="s">
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BK5" s="4" t="s">
+      <c r="AT5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BL5" s="4" t="s">
+      <c r="AU5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC5" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BL5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BM5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BN5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="BU5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BV5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW5" s="11"/>
+      <c r="BX5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BY5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BZ5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CA5" s="5"/>
+      <c r="CB5" s="5"/>
+      <c r="CC5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BM5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BN5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BO5" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BP5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BQ5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BR5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BT5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BV5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BW5" s="10"/>
-      <c r="BX5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BY5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BZ5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA5" s="4"/>
-      <c r="CB5" s="4"/>
-      <c r="CC5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="CE5" s="4"/>
-      <c r="CF5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="CG5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH5" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CI5" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="CK5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CL5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CM5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="CN5" s="4" t="s">
+      <c r="CG5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="CJ5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="CK5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="CM5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="CN5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO5" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CP5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="CR5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="CS5" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="CT5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="CU5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="CV5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="CW5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="CX5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="CY5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="CZ5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="DA5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="DB5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="DC5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="DD5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="DF5" s="18"/>
+      <c r="DG5" s="21"/>
+      <c r="DH5" s="21"/>
+      <c r="DI5" s="21"/>
+      <c r="DJ5" s="21"/>
+      <c r="DK5" s="21"/>
+      <c r="DL5" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="DM5" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="DN5" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="DO5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="DP5" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="DQ5" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="CO5" s="4" t="s">
+      <c r="DR5" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="CP5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="CQ5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="CR5" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="CS5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="CT5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="CU5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="CV5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="CW5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="CX5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="CY5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="CZ5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="DB5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="DC5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="DD5" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="DE5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="DF5" s="18"/>
+      <c r="DS5" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="DT5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="DU5" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="DV5" s="28"/>
+      <c r="DW5" s="29"/>
+      <c r="DX5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="DY5" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="DZ5" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="EA5" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="EB5" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC5" s="39"/>
+      <c r="ED5" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="EF5" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="EG5" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="EH5" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A1:DF1"/>
+  <mergeCells count="58">
+    <mergeCell ref="A1:EH1"/>
     <mergeCell ref="F2:AR2"/>
     <mergeCell ref="AS2:CE2"/>
     <mergeCell ref="CF2:DF2"/>
+    <mergeCell ref="DG2:DU2"/>
+    <mergeCell ref="DV2:EH2"/>
     <mergeCell ref="F3:U3"/>
     <mergeCell ref="V3:AR3"/>
     <mergeCell ref="F4:G4"/>
@@ -2480,20 +2986,49 @@
     <mergeCell ref="CB3:CB5"/>
     <mergeCell ref="CE3:CE5"/>
     <mergeCell ref="DF3:DF5"/>
+    <mergeCell ref="DG3:DG5"/>
+    <mergeCell ref="DH3:DH5"/>
+    <mergeCell ref="DI3:DI5"/>
+    <mergeCell ref="DJ3:DJ5"/>
+    <mergeCell ref="DK3:DK5"/>
+    <mergeCell ref="DV3:DV5"/>
+    <mergeCell ref="DW3:DW5"/>
+    <mergeCell ref="EC3:EC5"/>
+    <mergeCell ref="EH3:EH5"/>
     <mergeCell ref="AS3:AX4"/>
     <mergeCell ref="AY3:BA4"/>
     <mergeCell ref="BB3:BD4"/>
+    <mergeCell ref="DS3:DU4"/>
     <mergeCell ref="BE3:BI4"/>
     <mergeCell ref="BJ3:BK4"/>
     <mergeCell ref="BL3:BM4"/>
     <mergeCell ref="BN3:BR4"/>
+    <mergeCell ref="DL3:DP4"/>
     <mergeCell ref="BS3:BV4"/>
     <mergeCell ref="BX3:BZ4"/>
     <mergeCell ref="CC3:CD4"/>
+    <mergeCell ref="DQ3:DR4"/>
+    <mergeCell ref="EA3:EB4"/>
     <mergeCell ref="CF3:CJ4"/>
     <mergeCell ref="CK3:CT4"/>
     <mergeCell ref="CU3:DE4"/>
+    <mergeCell ref="DX3:DZ4"/>
+    <mergeCell ref="ED3:EG4"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH3 EH5">
+      <formula1>"正开模,倒开模"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DG3">
+      <formula1>"双分,整体"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EC3">
+      <formula1>"T0,T1,T2,T3,点浇口,侧浇口"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DW3">
+      <formula1>"12-50普通,16-50,12-50套筒"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
@@ -91,7 +91,7 @@
     <t>外径</t>
   </si>
   <si>
-    <t>平面度</t>
+    <t>白片平面度</t>
   </si>
   <si>
     <t>分割位均值</t>
@@ -332,13 +332,13 @@
     <t>R2矢高极差(um)</t>
   </si>
   <si>
-    <t>外径偏心(%/规格）</t>
-  </si>
-  <si>
-    <t>坎合偏心(%/规格）</t>
-  </si>
-  <si>
-    <t>面间偏心(%/规格）</t>
+    <t>白片外径偏心(%/规格）</t>
+  </si>
+  <si>
+    <t>白片坎合偏心(%/规格）</t>
+  </si>
+  <si>
+    <t>白片面间偏心(%/规格）</t>
   </si>
   <si>
     <t>退火制程</t>
@@ -350,19 +350,19 @@
     <t>DMP坎合圆度(um)</t>
   </si>
   <si>
-    <t>外径均值(um)</t>
-  </si>
-  <si>
-    <t>外径极差(um)</t>
+    <t>白片外径均值(um)</t>
+  </si>
+  <si>
+    <t>白片外径极差(um)</t>
   </si>
   <si>
     <t>外径圆度(um)</t>
   </si>
   <si>
-    <t>外径收缩率(‰)</t>
-  </si>
-  <si>
-    <t>外径粗糙度(um)</t>
+    <t>白片外径收缩率(‰)</t>
+  </si>
+  <si>
+    <t>白片外径粗糙度(um)</t>
   </si>
   <si>
     <t>R1(um)</t>
@@ -401,13 +401,13 @@
     <t>外观图片</t>
   </si>
   <si>
-    <t>最厚壁厚(um)</t>
-  </si>
-  <si>
-    <t>最薄壁厚(um)</t>
-  </si>
-  <si>
-    <t>最厚/芯厚</t>
+    <t>光学最厚壁厚(um)</t>
+  </si>
+  <si>
+    <t>光学最薄壁厚(um)</t>
+  </si>
+  <si>
+    <t>光学最厚/芯厚</t>
   </si>
   <si>
     <t>光学厚薄比</t>
@@ -431,12 +431,15 @@
     <t>整体径厚比</t>
   </si>
   <si>
-    <t>最大角度R1(°)</t>
-  </si>
-  <si>
-    <t>最大角度R2(°)</t>
-  </si>
-  <si>
+    <t>整体最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>整体最大角度R2(°)</t>
+  </si>
+  <si>
+    <r>
+      <t>整体</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -466,6 +469,9 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>整体</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -635,7 +641,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -805,7 +811,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1416,7 +1422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1442,15 +1448,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1899,8 +1896,8 @@
   <sheetPr/>
   <dimension ref="A1:EH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="CT14" sqref="CT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2054,7 +2051,7 @@
       <c r="EE1" s="2"/>
       <c r="EF1" s="2"/>
       <c r="EG1" s="2"/>
-      <c r="EH1" s="40"/>
+      <c r="EH1" s="37"/>
     </row>
     <row r="2" ht="20.25" spans="1:138">
       <c r="A2" s="3" t="s">
@@ -2154,67 +2151,67 @@
       <c r="CC2" s="4"/>
       <c r="CD2" s="4"/>
       <c r="CE2" s="4"/>
-      <c r="CF2" s="12" t="s">
+      <c r="CF2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12"/>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12"/>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12"/>
-      <c r="CZ2" s="12"/>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12"/>
-      <c r="DG2" s="16" t="s">
+      <c r="CG2" s="9"/>
+      <c r="CH2" s="9"/>
+      <c r="CI2" s="9"/>
+      <c r="CJ2" s="9"/>
+      <c r="CK2" s="9"/>
+      <c r="CL2" s="9"/>
+      <c r="CM2" s="9"/>
+      <c r="CN2" s="9"/>
+      <c r="CO2" s="9"/>
+      <c r="CP2" s="9"/>
+      <c r="CQ2" s="9"/>
+      <c r="CR2" s="9"/>
+      <c r="CS2" s="9"/>
+      <c r="CT2" s="9"/>
+      <c r="CU2" s="9"/>
+      <c r="CV2" s="9"/>
+      <c r="CW2" s="9"/>
+      <c r="CX2" s="9"/>
+      <c r="CY2" s="9"/>
+      <c r="CZ2" s="9"/>
+      <c r="DA2" s="9"/>
+      <c r="DB2" s="9"/>
+      <c r="DC2" s="9"/>
+      <c r="DD2" s="9"/>
+      <c r="DE2" s="9"/>
+      <c r="DF2" s="9"/>
+      <c r="DG2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="DH2" s="17"/>
-      <c r="DI2" s="17"/>
-      <c r="DJ2" s="17"/>
-      <c r="DK2" s="17"/>
-      <c r="DL2" s="17"/>
-      <c r="DM2" s="17"/>
-      <c r="DN2" s="17"/>
-      <c r="DO2" s="17"/>
-      <c r="DP2" s="17"/>
-      <c r="DQ2" s="17"/>
-      <c r="DR2" s="17"/>
-      <c r="DS2" s="17"/>
-      <c r="DT2" s="17"/>
-      <c r="DU2" s="17"/>
-      <c r="DV2" s="12" t="s">
+      <c r="DH2" s="14"/>
+      <c r="DI2" s="14"/>
+      <c r="DJ2" s="14"/>
+      <c r="DK2" s="14"/>
+      <c r="DL2" s="14"/>
+      <c r="DM2" s="14"/>
+      <c r="DN2" s="14"/>
+      <c r="DO2" s="14"/>
+      <c r="DP2" s="14"/>
+      <c r="DQ2" s="14"/>
+      <c r="DR2" s="14"/>
+      <c r="DS2" s="14"/>
+      <c r="DT2" s="14"/>
+      <c r="DU2" s="14"/>
+      <c r="DV2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="DW2" s="12"/>
-      <c r="DX2" s="12"/>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12"/>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="12"/>
+      <c r="DW2" s="9"/>
+      <c r="DX2" s="9"/>
+      <c r="DY2" s="9"/>
+      <c r="DZ2" s="9"/>
+      <c r="EA2" s="9"/>
+      <c r="EB2" s="9"/>
+      <c r="EC2" s="9"/>
+      <c r="ED2" s="9"/>
+      <c r="EE2" s="9"/>
+      <c r="EF2" s="9"/>
+      <c r="EG2" s="9"/>
+      <c r="EH2" s="9"/>
     </row>
     <row r="3" ht="18.75" spans="1:138">
       <c r="A3" s="5"/>
@@ -2311,7 +2308,7 @@
       <c r="BT3" s="6"/>
       <c r="BU3" s="6"/>
       <c r="BV3" s="6"/>
-      <c r="BW3" s="11" t="s">
+      <c r="BW3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="BX3" s="6" t="s">
@@ -2329,100 +2326,100 @@
         <v>25</v>
       </c>
       <c r="CD3" s="6"/>
-      <c r="CE3" s="13" t="s">
+      <c r="CE3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="CF3" s="14" t="s">
+      <c r="CF3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="14"/>
-      <c r="CK3" s="14" t="s">
+      <c r="CG3" s="11"/>
+      <c r="CH3" s="11"/>
+      <c r="CI3" s="11"/>
+      <c r="CJ3" s="11"/>
+      <c r="CK3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="14"/>
-      <c r="CP3" s="14"/>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="14"/>
-      <c r="CU3" s="14" t="s">
+      <c r="CL3" s="11"/>
+      <c r="CM3" s="11"/>
+      <c r="CN3" s="11"/>
+      <c r="CO3" s="11"/>
+      <c r="CP3" s="11"/>
+      <c r="CQ3" s="11"/>
+      <c r="CR3" s="11"/>
+      <c r="CS3" s="11"/>
+      <c r="CT3" s="11"/>
+      <c r="CU3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="14"/>
-      <c r="CZ3" s="14"/>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="14"/>
-      <c r="DE3" s="14"/>
-      <c r="DF3" s="18" t="s">
+      <c r="CV3" s="11"/>
+      <c r="CW3" s="11"/>
+      <c r="CX3" s="11"/>
+      <c r="CY3" s="11"/>
+      <c r="CZ3" s="11"/>
+      <c r="DA3" s="11"/>
+      <c r="DB3" s="11"/>
+      <c r="DC3" s="11"/>
+      <c r="DD3" s="11"/>
+      <c r="DE3" s="11"/>
+      <c r="DF3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="DG3" s="19" t="s">
+      <c r="DG3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="DH3" s="19" t="s">
+      <c r="DH3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="DI3" s="19" t="s">
+      <c r="DI3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="DJ3" s="19" t="s">
+      <c r="DJ3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="DK3" s="19" t="s">
+      <c r="DK3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="DL3" s="22" t="s">
+      <c r="DL3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="DM3" s="23"/>
-      <c r="DN3" s="23"/>
-      <c r="DO3" s="23"/>
-      <c r="DP3" s="24"/>
-      <c r="DQ3" s="22" t="s">
+      <c r="DM3" s="20"/>
+      <c r="DN3" s="20"/>
+      <c r="DO3" s="20"/>
+      <c r="DP3" s="21"/>
+      <c r="DQ3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="DR3" s="24"/>
-      <c r="DS3" s="22" t="s">
+      <c r="DR3" s="21"/>
+      <c r="DS3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="DT3" s="23"/>
-      <c r="DU3" s="23"/>
-      <c r="DV3" s="28" t="s">
+      <c r="DT3" s="20"/>
+      <c r="DU3" s="20"/>
+      <c r="DV3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="DW3" s="29" t="s">
+      <c r="DW3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="DX3" s="30" t="s">
+      <c r="DX3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="DY3" s="33"/>
-      <c r="DZ3" s="34"/>
-      <c r="EA3" s="30" t="s">
+      <c r="DY3" s="30"/>
+      <c r="DZ3" s="31"/>
+      <c r="EA3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="EB3" s="34"/>
-      <c r="EC3" s="35" t="s">
+      <c r="EB3" s="31"/>
+      <c r="EC3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="ED3" s="30" t="s">
+      <c r="ED3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="EE3" s="33"/>
-      <c r="EF3" s="33"/>
-      <c r="EG3" s="34"/>
-      <c r="EH3" s="41" t="s">
+      <c r="EE3" s="30"/>
+      <c r="EF3" s="30"/>
+      <c r="EG3" s="31"/>
+      <c r="EH3" s="38" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2456,43 +2453,43 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="10" t="s">
+      <c r="W4" s="7"/>
+      <c r="X4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9" t="s">
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="10" t="s">
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AR4" s="10" t="s">
+      <c r="AR4" s="8" t="s">
         <v>54</v>
       </c>
       <c r="AS4" s="6"/>
@@ -2525,7 +2522,7 @@
       <c r="BT4" s="6"/>
       <c r="BU4" s="6"/>
       <c r="BV4" s="6"/>
-      <c r="BW4" s="11"/>
+      <c r="BW4" s="5"/>
       <c r="BX4" s="6"/>
       <c r="BY4" s="6"/>
       <c r="BZ4" s="6"/>
@@ -2533,62 +2530,62 @@
       <c r="CB4" s="5"/>
       <c r="CC4" s="6"/>
       <c r="CD4" s="6"/>
-      <c r="CE4" s="13"/>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14"/>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14"/>
-      <c r="CL4" s="14"/>
-      <c r="CM4" s="14"/>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14"/>
-      <c r="CT4" s="14"/>
-      <c r="CU4" s="14"/>
-      <c r="CV4" s="14"/>
-      <c r="CW4" s="14"/>
-      <c r="CX4" s="14"/>
-      <c r="CY4" s="14"/>
-      <c r="CZ4" s="14"/>
-      <c r="DA4" s="14"/>
-      <c r="DB4" s="14"/>
-      <c r="DC4" s="14"/>
-      <c r="DD4" s="14"/>
-      <c r="DE4" s="14"/>
-      <c r="DF4" s="18"/>
-      <c r="DG4" s="20"/>
-      <c r="DH4" s="20"/>
-      <c r="DI4" s="20"/>
-      <c r="DJ4" s="20"/>
-      <c r="DK4" s="20"/>
-      <c r="DL4" s="25"/>
-      <c r="DM4" s="26"/>
-      <c r="DN4" s="26"/>
-      <c r="DO4" s="26"/>
-      <c r="DP4" s="27"/>
-      <c r="DQ4" s="25"/>
-      <c r="DR4" s="27"/>
-      <c r="DS4" s="25"/>
-      <c r="DT4" s="26"/>
-      <c r="DU4" s="26"/>
-      <c r="DV4" s="28"/>
-      <c r="DW4" s="29"/>
-      <c r="DX4" s="31"/>
-      <c r="DY4" s="36"/>
-      <c r="DZ4" s="37"/>
-      <c r="EA4" s="31"/>
-      <c r="EB4" s="37"/>
-      <c r="EC4" s="38"/>
-      <c r="ED4" s="31"/>
-      <c r="EE4" s="36"/>
-      <c r="EF4" s="36"/>
-      <c r="EG4" s="37"/>
-      <c r="EH4" s="42"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="11"/>
+      <c r="CG4" s="11"/>
+      <c r="CH4" s="11"/>
+      <c r="CI4" s="11"/>
+      <c r="CJ4" s="11"/>
+      <c r="CK4" s="11"/>
+      <c r="CL4" s="11"/>
+      <c r="CM4" s="11"/>
+      <c r="CN4" s="11"/>
+      <c r="CO4" s="11"/>
+      <c r="CP4" s="11"/>
+      <c r="CQ4" s="11"/>
+      <c r="CR4" s="11"/>
+      <c r="CS4" s="11"/>
+      <c r="CT4" s="11"/>
+      <c r="CU4" s="11"/>
+      <c r="CV4" s="11"/>
+      <c r="CW4" s="11"/>
+      <c r="CX4" s="11"/>
+      <c r="CY4" s="11"/>
+      <c r="CZ4" s="11"/>
+      <c r="DA4" s="11"/>
+      <c r="DB4" s="11"/>
+      <c r="DC4" s="11"/>
+      <c r="DD4" s="11"/>
+      <c r="DE4" s="11"/>
+      <c r="DF4" s="15"/>
+      <c r="DG4" s="17"/>
+      <c r="DH4" s="17"/>
+      <c r="DI4" s="17"/>
+      <c r="DJ4" s="17"/>
+      <c r="DK4" s="17"/>
+      <c r="DL4" s="22"/>
+      <c r="DM4" s="23"/>
+      <c r="DN4" s="23"/>
+      <c r="DO4" s="23"/>
+      <c r="DP4" s="24"/>
+      <c r="DQ4" s="22"/>
+      <c r="DR4" s="24"/>
+      <c r="DS4" s="22"/>
+      <c r="DT4" s="23"/>
+      <c r="DU4" s="23"/>
+      <c r="DV4" s="25"/>
+      <c r="DW4" s="26"/>
+      <c r="DX4" s="28"/>
+      <c r="DY4" s="33"/>
+      <c r="DZ4" s="34"/>
+      <c r="EA4" s="28"/>
+      <c r="EB4" s="34"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="28"/>
+      <c r="EE4" s="33"/>
+      <c r="EF4" s="33"/>
+      <c r="EG4" s="34"/>
+      <c r="EH4" s="39"/>
     </row>
     <row r="5" ht="57" spans="1:138">
       <c r="A5" s="5"/>
@@ -2640,65 +2637,65 @@
       <c r="U5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="s">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="10" t="s">
+      <c r="AB5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AD5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AE5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AF5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AH5" s="10" t="s">
+      <c r="AH5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AK5" s="10" t="s">
+      <c r="AK5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AL5" s="10" t="s">
+      <c r="AL5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AM5" s="10" t="s">
+      <c r="AM5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AN5" s="10" t="s">
+      <c r="AN5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AO5" s="10" t="s">
+      <c r="AO5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
       <c r="AS5" s="5" t="s">
         <v>73</v>
       </c>
@@ -2729,10 +2726,10 @@
       <c r="BB5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BC5" s="11" t="s">
+      <c r="BC5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="5" t="s">
         <v>84</v>
       </c>
       <c r="BE5" s="5" t="s">
@@ -2762,10 +2759,10 @@
       <c r="BM5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="BN5" s="11" t="s">
+      <c r="BN5" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="BO5" s="11" t="s">
+      <c r="BO5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="BP5" s="5" t="s">
@@ -2789,7 +2786,7 @@
       <c r="BV5" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="BW5" s="11"/>
+      <c r="BW5" s="5"/>
       <c r="BX5" s="5" t="s">
         <v>97</v>
       </c>
@@ -2847,10 +2844,10 @@
       <c r="CR5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="CS5" s="15" t="s">
+      <c r="CS5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="CT5" s="15" t="s">
+      <c r="CT5" s="12" t="s">
         <v>115</v>
       </c>
       <c r="CU5" s="5" t="s">
@@ -2886,73 +2883,73 @@
       <c r="DE5" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="DF5" s="18"/>
-      <c r="DG5" s="21"/>
-      <c r="DH5" s="21"/>
-      <c r="DI5" s="21"/>
-      <c r="DJ5" s="21"/>
-      <c r="DK5" s="21"/>
-      <c r="DL5" s="28" t="s">
+      <c r="DF5" s="15"/>
+      <c r="DG5" s="18"/>
+      <c r="DH5" s="18"/>
+      <c r="DI5" s="18"/>
+      <c r="DJ5" s="18"/>
+      <c r="DK5" s="18"/>
+      <c r="DL5" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="DM5" s="28" t="s">
+      <c r="DM5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="DN5" s="28" t="s">
+      <c r="DN5" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="DO5" s="28" t="s">
+      <c r="DO5" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="DP5" s="28" t="s">
+      <c r="DP5" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="DQ5" s="28" t="s">
+      <c r="DQ5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="DR5" s="28" t="s">
+      <c r="DR5" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="DS5" s="18" t="s">
+      <c r="DS5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="DT5" s="18" t="s">
+      <c r="DT5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="DU5" s="32" t="s">
+      <c r="DU5" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="DV5" s="28"/>
-      <c r="DW5" s="29"/>
-      <c r="DX5" s="29" t="s">
+      <c r="DV5" s="25"/>
+      <c r="DW5" s="26"/>
+      <c r="DX5" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="DY5" s="29" t="s">
+      <c r="DY5" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="DZ5" s="29" t="s">
+      <c r="DZ5" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="EA5" s="29" t="s">
+      <c r="EA5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="EB5" s="29" t="s">
+      <c r="EB5" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="EC5" s="39"/>
-      <c r="ED5" s="29" t="s">
+      <c r="EC5" s="36"/>
+      <c r="ED5" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="EE5" s="29" t="s">
+      <c r="EE5" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="EF5" s="29" t="s">
+      <c r="EF5" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="EG5" s="29" t="s">
+      <c r="EG5" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="EH5" s="43"/>
+      <c r="EH5" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -3016,17 +3013,17 @@
     <mergeCell ref="ED3:EG4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH3 EH5">
-      <formula1>"正开模,倒开模"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DG3">
       <formula1>"双分,整体"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DW3">
+      <formula1>"12-50普通,16-50,12-50套筒"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EC3">
       <formula1>"T0,T1,T2,T3,点浇口,侧浇口"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DW3">
-      <formula1>"12-50普通,16-50,12-50套筒"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH3 EH5">
+      <formula1>"正开模,倒开模"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="279"/>
+    <workbookView windowWidth="20925" windowHeight="9840" tabRatio="245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>Xiang Yang</author>
   </authors>
   <commentList>
-    <comment ref="CS5" authorId="0">
+    <comment ref="DP5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,39 +38,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="174">
   <si>
     <t>数据关联总表</t>
   </si>
   <si>
+    <t>事业部</t>
+  </si>
+  <si>
     <t>类别</t>
   </si>
   <si>
+    <t>镜片数</t>
+  </si>
+  <si>
     <t>项目</t>
   </si>
   <si>
+    <t>零件名称</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>项目量产工艺条件数据</t>
+  </si>
+  <si>
+    <t>项目量产成型结果数据</t>
+  </si>
+  <si>
+    <t>项目量产结构数据</t>
+  </si>
+  <si>
+    <t>项目量产模流数据</t>
+  </si>
+  <si>
+    <t>项目量产模具数据</t>
+  </si>
+  <si>
     <t>模具序号</t>
   </si>
   <si>
-    <t>零件名称</t>
-  </si>
-  <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>项目量产工艺条件数据</t>
-  </si>
-  <si>
-    <t>项目量产成型结果数据</t>
-  </si>
-  <si>
-    <t>项目量产结构数据</t>
-  </si>
-  <si>
-    <t>项目量产模流数据</t>
-  </si>
-  <si>
-    <t>项目量产模具数据</t>
+    <t>模具类型</t>
   </si>
   <si>
     <t>模流工艺条件</t>
@@ -94,7 +103,7 @@
     <t>白片平面度</t>
   </si>
   <si>
-    <t>分割位均值</t>
+    <t>分割位台阶均值</t>
   </si>
   <si>
     <t>白片面型</t>
@@ -109,7 +118,25 @@
     <t>镀膜片模拟结果</t>
   </si>
   <si>
-    <t>毛边(um)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分型面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毛边(um)</t>
+    </r>
   </si>
   <si>
     <t>熔接线（黄光灯下是否存在）</t>
@@ -121,6 +148,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>周期及成本</t>
+  </si>
+  <si>
     <t>光学区域</t>
   </si>
   <si>
@@ -133,7 +163,7 @@
     <t>组立图</t>
   </si>
   <si>
-    <t>模具类型</t>
+    <t>流道类型</t>
   </si>
   <si>
     <r>
@@ -188,7 +218,11 @@
     <t>模仁钝化工艺</t>
   </si>
   <si>
-    <t>流道类型</t>
+    <t>型腔内径</t>
+  </si>
+  <si>
+    <t>型腔内径
+极差</t>
   </si>
   <si>
     <t>流道尺寸（直径）</t>
@@ -218,6 +252,9 @@
     <t>保压设置</t>
   </si>
   <si>
+    <t>模流冷却时间(s)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -251,7 +288,7 @@
     <t>顶出设置</t>
   </si>
   <si>
-    <t>冷却时间(s)</t>
+    <t>工艺冷却时间(s)</t>
   </si>
   <si>
     <t>锁模力(Ton)</t>
@@ -356,7 +393,7 @@
     <t>白片外径极差(um)</t>
   </si>
   <si>
-    <t>外径圆度(um)</t>
+    <t>白片外径圆度(um)</t>
   </si>
   <si>
     <t>白片外径收缩率(‰)</t>
@@ -377,6 +414,12 @@
     <t>R2(nm)</t>
   </si>
   <si>
+    <t>R1图片</t>
+  </si>
+  <si>
+    <t>R2图片</t>
+  </si>
+  <si>
     <t>全穴一致性(nm)</t>
   </si>
   <si>
@@ -401,6 +444,39 @@
     <t>外观图片</t>
   </si>
   <si>
+    <t>ABC档合格数分布</t>
+  </si>
+  <si>
+    <t>结构方案总数</t>
+  </si>
+  <si>
+    <t>模具类型总数</t>
+  </si>
+  <si>
+    <t>模具费用</t>
+  </si>
+  <si>
+    <t>项目EVT耗时</t>
+  </si>
+  <si>
+    <t>项目DVT耗时</t>
+  </si>
+  <si>
+    <t>项目(EVT+DVT)耗时</t>
+  </si>
+  <si>
+    <t>项目EVT费用</t>
+  </si>
+  <si>
+    <t>项目DVT费用</t>
+  </si>
+  <si>
+    <t>项目(EVT+DVT)费用</t>
+  </si>
+  <si>
+    <t>项目量产</t>
+  </si>
+  <si>
     <t>光学最厚壁厚(um)</t>
   </si>
   <si>
@@ -413,6 +489,12 @@
     <t>光学厚薄比</t>
   </si>
   <si>
+    <t>光学最大角度R1(°)</t>
+  </si>
+  <si>
+    <t>光学最大角度R2(°)</t>
+  </si>
+  <si>
     <t>外径(um)</t>
   </si>
   <si>
@@ -438,6 +520,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>整体</t>
     </r>
     <r>
@@ -470,6 +558,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>整体</t>
     </r>
     <r>
@@ -531,22 +625,267 @@
     <t>R2消光位置（粗糙度SRTM）</t>
   </si>
   <si>
+    <t>R1分割位位置</t>
+  </si>
+  <si>
+    <t>R2分割位位置</t>
+  </si>
+  <si>
     <t>外径消光位置（粗糙度SRTM）</t>
   </si>
   <si>
-    <t>整体(%)</t>
-  </si>
-  <si>
-    <t>R1有效径(%)</t>
-  </si>
-  <si>
-    <t>R2有效径(%)</t>
-  </si>
-  <si>
-    <t>R1坎合(%)</t>
-  </si>
-  <si>
-    <t>R2坎合(%)</t>
+    <t>分型面上抬比例</t>
+  </si>
+  <si>
+    <t>机构逃肉</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均体积收缩率差值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1有效径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2有效径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1坎合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2坎合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四点极差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模拟面型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1(nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模拟面型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2(nm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模拟面型图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模拟面型图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2</t>
+    </r>
   </si>
   <si>
     <t>竞品名称</t>
@@ -567,10 +906,120 @@
     <t xml:space="preserve">三级分流道(mm) </t>
   </si>
   <si>
-    <t>分型面(um)</t>
-  </si>
-  <si>
-    <t>分割位(um)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分型面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分割位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分割位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(um)</t>
+    </r>
   </si>
   <si>
     <t>宽度(mm)</t>
@@ -595,7 +1044,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,7 +1060,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1027,18 +1490,9 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1067,9 +1521,25 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1092,11 +1562,48 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1128,50 +1635,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1280,10 +1743,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1292,37 +1755,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,219 +1788,306 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1894,173 +2438,212 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:EH5"/>
+  <dimension ref="A1:FQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
-      <selection activeCell="CT14" sqref="CT14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="128" max="128" width="15" customWidth="1"/>
-    <col min="129" max="129" width="15.25" customWidth="1"/>
-    <col min="130" max="130" width="15.375" customWidth="1"/>
-    <col min="131" max="131" width="13.75" customWidth="1"/>
-    <col min="132" max="132" width="14.125" customWidth="1"/>
-    <col min="136" max="136" width="12.75" customWidth="1"/>
-    <col min="137" max="137" width="13.625" customWidth="1"/>
+    <col min="64" max="64" width="9.875" customWidth="1"/>
+    <col min="65" max="65" width="10.75" customWidth="1"/>
+    <col min="160" max="160" width="9.5" customWidth="1"/>
+    <col min="161" max="161" width="9.375" customWidth="1"/>
+    <col min="162" max="162" width="15" customWidth="1"/>
+    <col min="163" max="163" width="15.25" customWidth="1"/>
+    <col min="164" max="164" width="15.375" customWidth="1"/>
+    <col min="165" max="165" width="10.875" customWidth="1"/>
+    <col min="166" max="166" width="10.125" customWidth="1"/>
+    <col min="171" max="171" width="12.75" customWidth="1"/>
+    <col min="172" max="172" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:138">
+    <row r="1" ht="22.5" spans="1:173">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
-      <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
-      <c r="EB1" s="2"/>
-      <c r="EC1" s="2"/>
-      <c r="ED1" s="2"/>
-      <c r="EE1" s="2"/>
-      <c r="EF1" s="2"/>
-      <c r="EG1" s="2"/>
-      <c r="EH1" s="37"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
+      <c r="CE1" s="1"/>
+      <c r="CF1" s="1"/>
+      <c r="CG1" s="1"/>
+      <c r="CH1" s="1"/>
+      <c r="CI1" s="1"/>
+      <c r="CJ1" s="1"/>
+      <c r="CK1" s="1"/>
+      <c r="CL1" s="1"/>
+      <c r="CM1" s="1"/>
+      <c r="CN1" s="1"/>
+      <c r="CO1" s="1"/>
+      <c r="CP1" s="1"/>
+      <c r="CQ1" s="1"/>
+      <c r="CR1" s="1"/>
+      <c r="CS1" s="1"/>
+      <c r="CT1" s="1"/>
+      <c r="CU1" s="1"/>
+      <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
+      <c r="CY1" s="1"/>
+      <c r="CZ1" s="1"/>
+      <c r="DA1" s="1"/>
+      <c r="DB1" s="1"/>
+      <c r="DC1" s="1"/>
+      <c r="DD1" s="1"/>
+      <c r="DE1" s="1"/>
+      <c r="DF1" s="1"/>
+      <c r="DG1" s="1"/>
+      <c r="DH1" s="1"/>
+      <c r="DI1" s="1"/>
+      <c r="DJ1" s="1"/>
+      <c r="DK1" s="1"/>
+      <c r="DL1" s="1"/>
+      <c r="DM1" s="1"/>
+      <c r="DN1" s="1"/>
+      <c r="DO1" s="1"/>
+      <c r="DP1" s="1"/>
+      <c r="DQ1" s="1"/>
+      <c r="DR1" s="1"/>
+      <c r="DS1" s="1"/>
+      <c r="DT1" s="1"/>
+      <c r="DU1" s="1"/>
+      <c r="DV1" s="1"/>
+      <c r="DW1" s="1"/>
+      <c r="DX1" s="1"/>
+      <c r="DY1" s="1"/>
+      <c r="DZ1" s="1"/>
+      <c r="EA1" s="1"/>
+      <c r="EB1" s="1"/>
+      <c r="EC1" s="1"/>
+      <c r="ED1" s="1"/>
+      <c r="EE1" s="1"/>
+      <c r="EF1" s="1"/>
+      <c r="EG1" s="1"/>
+      <c r="EH1" s="1"/>
+      <c r="EI1" s="1"/>
+      <c r="EJ1" s="1"/>
+      <c r="EK1" s="1"/>
+      <c r="EL1" s="1"/>
+      <c r="EM1" s="1"/>
+      <c r="EN1" s="1"/>
+      <c r="EO1" s="1"/>
+      <c r="EP1" s="1"/>
+      <c r="EQ1" s="1"/>
+      <c r="ER1" s="1"/>
+      <c r="ES1" s="1"/>
+      <c r="ET1" s="1"/>
+      <c r="EU1" s="1"/>
+      <c r="EV1" s="1"/>
+      <c r="EW1" s="1"/>
+      <c r="EX1" s="1"/>
+      <c r="EY1" s="1"/>
+      <c r="EZ1" s="1"/>
+      <c r="FA1" s="1"/>
+      <c r="FB1" s="1"/>
+      <c r="FC1" s="1"/>
+      <c r="FD1" s="1"/>
+      <c r="FE1" s="1"/>
+      <c r="FF1" s="1"/>
+      <c r="FG1" s="1"/>
+      <c r="FH1" s="1"/>
+      <c r="FI1" s="1"/>
+      <c r="FJ1" s="1"/>
+      <c r="FK1" s="1"/>
+      <c r="FL1" s="1"/>
+      <c r="FM1" s="1"/>
+      <c r="FN1" s="1"/>
+      <c r="FO1" s="1"/>
+      <c r="FP1" s="1"/>
+      <c r="FQ1" s="1"/>
     </row>
-    <row r="2" ht="20.25" spans="1:138">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="20.25" spans="1:173">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2069,961 +2652,1185 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4"/>
-      <c r="BV2" s="4"/>
-      <c r="BW2" s="4"/>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="4"/>
-      <c r="BZ2" s="4"/>
-      <c r="CA2" s="4"/>
-      <c r="CB2" s="4"/>
-      <c r="CC2" s="4"/>
-      <c r="CD2" s="4"/>
-      <c r="CE2" s="4"/>
-      <c r="CF2" s="9" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="9"/>
-      <c r="CI2" s="9"/>
-      <c r="CJ2" s="9"/>
-      <c r="CK2" s="9"/>
-      <c r="CL2" s="9"/>
-      <c r="CM2" s="9"/>
-      <c r="CN2" s="9"/>
-      <c r="CO2" s="9"/>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="9"/>
-      <c r="CR2" s="9"/>
-      <c r="CS2" s="9"/>
-      <c r="CT2" s="9"/>
-      <c r="CU2" s="9"/>
-      <c r="CV2" s="9"/>
-      <c r="CW2" s="9"/>
-      <c r="CX2" s="9"/>
-      <c r="CY2" s="9"/>
-      <c r="CZ2" s="9"/>
-      <c r="DA2" s="9"/>
-      <c r="DB2" s="9"/>
-      <c r="DC2" s="9"/>
-      <c r="DD2" s="9"/>
-      <c r="DE2" s="9"/>
-      <c r="DF2" s="9"/>
-      <c r="DG2" s="13" t="s">
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
+      <c r="CW2" s="6"/>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="19"/>
+      <c r="DA2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="DH2" s="14"/>
-      <c r="DI2" s="14"/>
-      <c r="DJ2" s="14"/>
-      <c r="DK2" s="14"/>
-      <c r="DL2" s="14"/>
-      <c r="DM2" s="14"/>
-      <c r="DN2" s="14"/>
-      <c r="DO2" s="14"/>
-      <c r="DP2" s="14"/>
-      <c r="DQ2" s="14"/>
-      <c r="DR2" s="14"/>
-      <c r="DS2" s="14"/>
-      <c r="DT2" s="14"/>
-      <c r="DU2" s="14"/>
-      <c r="DV2" s="9" t="s">
+      <c r="DB2" s="30"/>
+      <c r="DC2" s="30"/>
+      <c r="DD2" s="30"/>
+      <c r="DE2" s="30"/>
+      <c r="DF2" s="30"/>
+      <c r="DG2" s="30"/>
+      <c r="DH2" s="30"/>
+      <c r="DI2" s="30"/>
+      <c r="DJ2" s="30"/>
+      <c r="DK2" s="30"/>
+      <c r="DL2" s="30"/>
+      <c r="DM2" s="30"/>
+      <c r="DN2" s="30"/>
+      <c r="DO2" s="30"/>
+      <c r="DP2" s="30"/>
+      <c r="DQ2" s="30"/>
+      <c r="DR2" s="30"/>
+      <c r="DS2" s="30"/>
+      <c r="DT2" s="30"/>
+      <c r="DU2" s="30"/>
+      <c r="DV2" s="30"/>
+      <c r="DW2" s="30"/>
+      <c r="DX2" s="30"/>
+      <c r="DY2" s="30"/>
+      <c r="DZ2" s="30"/>
+      <c r="EA2" s="30"/>
+      <c r="EB2" s="30"/>
+      <c r="EC2" s="30"/>
+      <c r="ED2" s="30"/>
+      <c r="EE2" s="30"/>
+      <c r="EF2" s="30"/>
+      <c r="EG2" s="30"/>
+      <c r="EH2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="DW2" s="9"/>
-      <c r="DX2" s="9"/>
-      <c r="DY2" s="9"/>
-      <c r="DZ2" s="9"/>
-      <c r="EA2" s="9"/>
-      <c r="EB2" s="9"/>
-      <c r="EC2" s="9"/>
-      <c r="ED2" s="9"/>
-      <c r="EE2" s="9"/>
-      <c r="EF2" s="9"/>
-      <c r="EG2" s="9"/>
-      <c r="EH2" s="9"/>
+      <c r="EI2" s="6"/>
+      <c r="EJ2" s="6"/>
+      <c r="EK2" s="6"/>
+      <c r="EL2" s="6"/>
+      <c r="EM2" s="6"/>
+      <c r="EN2" s="6"/>
+      <c r="EO2" s="6"/>
+      <c r="EP2" s="6"/>
+      <c r="EQ2" s="6"/>
+      <c r="ER2" s="6"/>
+      <c r="ES2" s="6"/>
+      <c r="ET2" s="6"/>
+      <c r="EU2" s="6"/>
+      <c r="EV2" s="6"/>
+      <c r="EW2" s="6"/>
+      <c r="EX2" s="6"/>
+      <c r="EY2" s="6"/>
+      <c r="EZ2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="FA2" s="49"/>
+      <c r="FB2" s="49"/>
+      <c r="FC2" s="49"/>
+      <c r="FD2" s="49"/>
+      <c r="FE2" s="49"/>
+      <c r="FF2" s="49"/>
+      <c r="FG2" s="49"/>
+      <c r="FH2" s="49"/>
+      <c r="FI2" s="49"/>
+      <c r="FJ2" s="49"/>
+      <c r="FK2" s="49"/>
+      <c r="FL2" s="49"/>
+      <c r="FM2" s="49"/>
+      <c r="FN2" s="49"/>
+      <c r="FO2" s="49"/>
+      <c r="FP2" s="49"/>
+      <c r="FQ2" s="49"/>
     </row>
-    <row r="3" ht="18.75" spans="1:138">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6" t="s">
+    <row r="3" ht="18.75" spans="1:173">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6" t="s">
+      <c r="I3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6" t="s">
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6" t="s">
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6" t="s">
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6" t="s">
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6" t="s">
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="16"/>
+      <c r="BP3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="5" t="s">
+      <c r="BQ3" s="16"/>
+      <c r="BR3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="BX3" s="6" t="s">
+      <c r="BS3" s="16"/>
+      <c r="BT3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="5" t="s">
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="16"/>
+      <c r="BW3" s="16"/>
+      <c r="BX3" s="16"/>
+      <c r="BY3" s="16"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="CB3" s="5" t="s">
+      <c r="CB3" s="16"/>
+      <c r="CC3" s="16"/>
+      <c r="CD3" s="16"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="16"/>
+      <c r="CG3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="CC3" s="6" t="s">
+      <c r="CH3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="CD3" s="6"/>
-      <c r="CE3" s="10" t="s">
+      <c r="CI3" s="16"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="CF3" s="11" t="s">
+      <c r="CL3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="11"/>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="11" t="s">
+      <c r="CM3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="CL3" s="11"/>
-      <c r="CM3" s="11"/>
-      <c r="CN3" s="11"/>
-      <c r="CO3" s="11"/>
-      <c r="CP3" s="11"/>
-      <c r="CQ3" s="11"/>
-      <c r="CR3" s="11"/>
-      <c r="CS3" s="11"/>
-      <c r="CT3" s="11"/>
-      <c r="CU3" s="11" t="s">
+      <c r="CN3" s="16"/>
+      <c r="CO3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="CV3" s="11"/>
-      <c r="CW3" s="11"/>
-      <c r="CX3" s="11"/>
-      <c r="CY3" s="11"/>
-      <c r="CZ3" s="11"/>
-      <c r="DA3" s="11"/>
-      <c r="DB3" s="11"/>
-      <c r="DC3" s="11"/>
-      <c r="DD3" s="11"/>
-      <c r="DE3" s="11"/>
-      <c r="DF3" s="15" t="s">
+      <c r="CP3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="DG3" s="16" t="s">
+      <c r="CQ3" s="25"/>
+      <c r="CR3" s="25"/>
+      <c r="CS3" s="25"/>
+      <c r="CT3" s="25"/>
+      <c r="CU3" s="25"/>
+      <c r="CV3" s="25"/>
+      <c r="CW3" s="25"/>
+      <c r="CX3" s="25"/>
+      <c r="CY3" s="25"/>
+      <c r="CZ3" s="25"/>
+      <c r="DA3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="DH3" s="16" t="s">
+      <c r="DB3" s="25"/>
+      <c r="DC3" s="25"/>
+      <c r="DD3" s="25"/>
+      <c r="DE3" s="25"/>
+      <c r="DF3" s="25"/>
+      <c r="DG3" s="31"/>
+      <c r="DH3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="DI3" s="16" t="s">
+      <c r="DI3" s="32"/>
+      <c r="DJ3" s="32"/>
+      <c r="DK3" s="32"/>
+      <c r="DL3" s="32"/>
+      <c r="DM3" s="32"/>
+      <c r="DN3" s="32"/>
+      <c r="DO3" s="32"/>
+      <c r="DP3" s="32"/>
+      <c r="DQ3" s="32"/>
+      <c r="DR3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="DJ3" s="16" t="s">
+      <c r="DS3" s="25"/>
+      <c r="DT3" s="25"/>
+      <c r="DU3" s="25"/>
+      <c r="DV3" s="25"/>
+      <c r="DW3" s="25"/>
+      <c r="DX3" s="25"/>
+      <c r="DY3" s="25"/>
+      <c r="DZ3" s="25"/>
+      <c r="EA3" s="25"/>
+      <c r="EB3" s="25"/>
+      <c r="EC3" s="25"/>
+      <c r="ED3" s="25"/>
+      <c r="EE3" s="25"/>
+      <c r="EF3" s="31"/>
+      <c r="EG3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="DK3" s="16" t="s">
+      <c r="EH3" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="EI3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="DL3" s="19" t="s">
+      <c r="EJ3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="DM3" s="20"/>
-      <c r="DN3" s="20"/>
-      <c r="DO3" s="20"/>
-      <c r="DP3" s="21"/>
-      <c r="DQ3" s="19" t="s">
+      <c r="EK3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="DR3" s="21"/>
-      <c r="DS3" s="19" t="s">
+      <c r="EL3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="DT3" s="20"/>
-      <c r="DU3" s="20"/>
-      <c r="DV3" s="25" t="s">
+      <c r="EM3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="DW3" s="26" t="s">
+      <c r="EN3" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="DX3" s="27" t="s">
+      <c r="EO3" s="45"/>
+      <c r="EP3" s="45"/>
+      <c r="EQ3" s="45"/>
+      <c r="ER3" s="46"/>
+      <c r="ES3" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="DY3" s="30"/>
-      <c r="DZ3" s="31"/>
-      <c r="EA3" s="27" t="s">
+      <c r="ET3" s="45"/>
+      <c r="EU3" s="45"/>
+      <c r="EV3" s="45"/>
+      <c r="EW3" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="EB3" s="31"/>
-      <c r="EC3" s="32" t="s">
+      <c r="EX3" s="45"/>
+      <c r="EY3" s="45"/>
+      <c r="EZ3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="FA3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="FB3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="ED3" s="27" t="s">
+      <c r="FC3" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="FD3" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="EE3" s="30"/>
-      <c r="EF3" s="30"/>
-      <c r="EG3" s="31"/>
-      <c r="EH3" s="38" t="s">
+      <c r="FE3" s="50" t="s">
         <v>45</v>
       </c>
+      <c r="FF3" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="FG3" s="54"/>
+      <c r="FH3" s="55"/>
+      <c r="FI3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="FJ3" s="56"/>
+      <c r="FK3" s="56"/>
+      <c r="FL3" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="FM3" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="FN3" s="54"/>
+      <c r="FO3" s="54"/>
+      <c r="FP3" s="55"/>
+      <c r="FQ3" s="64" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" ht="18.75" spans="1:138">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7" t="s">
+    <row r="4" ht="18.75" spans="1:173">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="8" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="L4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="M4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="10"/>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="11"/>
-      <c r="CI4" s="11"/>
-      <c r="CJ4" s="11"/>
-      <c r="CK4" s="11"/>
-      <c r="CL4" s="11"/>
-      <c r="CM4" s="11"/>
-      <c r="CN4" s="11"/>
-      <c r="CO4" s="11"/>
-      <c r="CP4" s="11"/>
-      <c r="CQ4" s="11"/>
-      <c r="CR4" s="11"/>
-      <c r="CS4" s="11"/>
-      <c r="CT4" s="11"/>
-      <c r="CU4" s="11"/>
-      <c r="CV4" s="11"/>
-      <c r="CW4" s="11"/>
-      <c r="CX4" s="11"/>
-      <c r="CY4" s="11"/>
-      <c r="CZ4" s="11"/>
-      <c r="DA4" s="11"/>
-      <c r="DB4" s="11"/>
-      <c r="DC4" s="11"/>
-      <c r="DD4" s="11"/>
-      <c r="DE4" s="11"/>
-      <c r="DF4" s="15"/>
-      <c r="DG4" s="17"/>
-      <c r="DH4" s="17"/>
-      <c r="DI4" s="17"/>
-      <c r="DJ4" s="17"/>
-      <c r="DK4" s="17"/>
-      <c r="DL4" s="22"/>
-      <c r="DM4" s="23"/>
-      <c r="DN4" s="23"/>
-      <c r="DO4" s="23"/>
-      <c r="DP4" s="24"/>
-      <c r="DQ4" s="22"/>
-      <c r="DR4" s="24"/>
-      <c r="DS4" s="22"/>
-      <c r="DT4" s="23"/>
-      <c r="DU4" s="23"/>
-      <c r="DV4" s="25"/>
-      <c r="DW4" s="26"/>
-      <c r="DX4" s="28"/>
-      <c r="DY4" s="33"/>
-      <c r="DZ4" s="34"/>
-      <c r="EA4" s="28"/>
-      <c r="EB4" s="34"/>
-      <c r="EC4" s="35"/>
-      <c r="ED4" s="28"/>
-      <c r="EE4" s="33"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="21"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
+      <c r="CA4" s="16"/>
+      <c r="CB4" s="16"/>
+      <c r="CC4" s="16"/>
+      <c r="CD4" s="16"/>
+      <c r="CE4" s="16"/>
+      <c r="CF4" s="16"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="16"/>
+      <c r="CI4" s="16"/>
+      <c r="CJ4" s="16"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="8"/>
+      <c r="CM4" s="16"/>
+      <c r="CN4" s="16"/>
+      <c r="CO4" s="23"/>
+      <c r="CP4" s="26"/>
+      <c r="CQ4" s="27"/>
+      <c r="CR4" s="27"/>
+      <c r="CS4" s="27"/>
+      <c r="CT4" s="27"/>
+      <c r="CU4" s="27"/>
+      <c r="CV4" s="27"/>
+      <c r="CW4" s="27"/>
+      <c r="CX4" s="27"/>
+      <c r="CY4" s="27"/>
+      <c r="CZ4" s="27"/>
+      <c r="DA4" s="26"/>
+      <c r="DB4" s="27"/>
+      <c r="DC4" s="27"/>
+      <c r="DD4" s="27"/>
+      <c r="DE4" s="27"/>
+      <c r="DF4" s="27"/>
+      <c r="DG4" s="33"/>
+      <c r="DH4" s="32"/>
+      <c r="DI4" s="32"/>
+      <c r="DJ4" s="32"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="32"/>
+      <c r="DM4" s="32"/>
+      <c r="DN4" s="32"/>
+      <c r="DO4" s="32"/>
+      <c r="DP4" s="32"/>
+      <c r="DQ4" s="32"/>
+      <c r="DR4" s="26"/>
+      <c r="DS4" s="27"/>
+      <c r="DT4" s="27"/>
+      <c r="DU4" s="27"/>
+      <c r="DV4" s="27"/>
+      <c r="DW4" s="27"/>
+      <c r="DX4" s="27"/>
+      <c r="DY4" s="27"/>
+      <c r="DZ4" s="27"/>
+      <c r="EA4" s="27"/>
+      <c r="EB4" s="27"/>
+      <c r="EC4" s="27"/>
+      <c r="ED4" s="27"/>
+      <c r="EE4" s="27"/>
       <c r="EF4" s="33"/>
-      <c r="EG4" s="34"/>
+      <c r="EG4" s="35"/>
       <c r="EH4" s="39"/>
+      <c r="EI4" s="40"/>
+      <c r="EJ4" s="39"/>
+      <c r="EK4" s="39"/>
+      <c r="EL4" s="39"/>
+      <c r="EM4" s="39"/>
+      <c r="EN4" s="41"/>
+      <c r="EO4" s="47"/>
+      <c r="EP4" s="47"/>
+      <c r="EQ4" s="47"/>
+      <c r="ER4" s="48"/>
+      <c r="ES4" s="41"/>
+      <c r="ET4" s="47"/>
+      <c r="EU4" s="47"/>
+      <c r="EV4" s="47"/>
+      <c r="EW4" s="41"/>
+      <c r="EX4" s="47"/>
+      <c r="EY4" s="47"/>
+      <c r="EZ4" s="50"/>
+      <c r="FA4" s="50"/>
+      <c r="FB4" s="44"/>
+      <c r="FC4" s="51"/>
+      <c r="FD4" s="52"/>
+      <c r="FE4" s="52"/>
+      <c r="FF4" s="58"/>
+      <c r="FG4" s="58"/>
+      <c r="FH4" s="59"/>
+      <c r="FI4" s="56"/>
+      <c r="FJ4" s="56"/>
+      <c r="FK4" s="56"/>
+      <c r="FL4" s="60"/>
+      <c r="FM4" s="65"/>
+      <c r="FN4" s="58"/>
+      <c r="FO4" s="58"/>
+      <c r="FP4" s="59"/>
+      <c r="FQ4" s="66"/>
     </row>
-    <row r="5" ht="57" spans="1:138">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="N5" s="8" t="s">
+    <row r="5" ht="57" spans="1:173">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="J5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="N5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="O5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="P5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="Q5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="R5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD5" s="8" t="s">
+      <c r="S5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AA5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AE5" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AF5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AG5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AH5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AI5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AK5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AL5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AO5" s="8" t="s">
+      <c r="AM5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="5" t="s">
+      <c r="AN5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AO5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AP5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AQ5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AR5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AS5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="14"/>
+      <c r="AV5" s="14"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="AZ5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BA5" s="5" t="s">
+      <c r="BA5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="BB5" s="5" t="s">
+      <c r="BB5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="BC5" s="5" t="s">
+      <c r="BC5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BD5" s="5" t="s">
+      <c r="BD5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="BE5" s="5" t="s">
+      <c r="BE5" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="BF5" s="5" t="s">
+      <c r="BF5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="BG5" s="5" t="s">
+      <c r="BG5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="BH5" s="5" t="s">
+      <c r="BH5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="BI5" s="5" t="s">
+      <c r="BI5" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="BJ5" s="5" t="s">
+      <c r="BJ5" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="BK5" s="5" t="s">
+      <c r="BK5" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="BL5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BM5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BN5" s="5" t="s">
+      <c r="BL5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="BO5" s="5" t="s">
+      <c r="BM5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="BP5" s="5" t="s">
+      <c r="BN5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="BQ5" s="5" t="s">
+      <c r="BO5" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="BR5" s="5" t="s">
+      <c r="BP5" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BS5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BU5" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5" t="s">
+      <c r="BQ5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BY5" s="5" t="s">
+      <c r="BR5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BS5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BT5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BZ5" s="5" t="s">
+      <c r="BU5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="5" t="s">
+      <c r="BV5" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="CD5" s="5" t="s">
+      <c r="BW5" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="CG5" s="5" t="s">
+      <c r="BX5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CH5" s="5" t="s">
+      <c r="BY5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="CI5" s="5" t="s">
+      <c r="BZ5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="CJ5" s="5" t="s">
+      <c r="CA5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="CB5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="CC5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="CD5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="CK5" s="5" t="s">
+      <c r="CI5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="CL5" s="5" t="s">
+      <c r="CJ5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="CM5" s="5" t="s">
+      <c r="CK5" s="8"/>
+      <c r="CL5" s="8"/>
+      <c r="CM5" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="CN5" s="5" t="s">
+      <c r="CN5" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="CO5" s="5" t="s">
+      <c r="CO5" s="8"/>
+      <c r="CP5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="CP5" s="5" t="s">
+      <c r="CQ5" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="CQ5" s="5" t="s">
+      <c r="CR5" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="CR5" s="5" t="s">
+      <c r="CS5" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="CS5" s="12" t="s">
+      <c r="CT5" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="CT5" s="12" t="s">
+      <c r="CU5" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="CU5" s="5" t="s">
+      <c r="CV5" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="CV5" s="5" t="s">
+      <c r="CW5" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="CW5" s="5" t="s">
+      <c r="CX5" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="CX5" s="5" t="s">
+      <c r="CY5" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="CY5" s="5" t="s">
+      <c r="CZ5" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="CZ5" s="5" t="s">
+      <c r="DA5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="DB5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="DA5" s="5" t="s">
+      <c r="DC5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="DB5" s="5" t="s">
+      <c r="DD5" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="DC5" s="5" t="s">
+      <c r="DE5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DD5" s="5" t="s">
+      <c r="DF5" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="DE5" s="5" t="s">
+      <c r="DG5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="DF5" s="15"/>
-      <c r="DG5" s="18"/>
-      <c r="DH5" s="18"/>
-      <c r="DI5" s="18"/>
-      <c r="DJ5" s="18"/>
-      <c r="DK5" s="18"/>
-      <c r="DL5" s="25" t="s">
+      <c r="DH5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DM5" s="25" t="s">
+      <c r="DI5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DN5" s="25" t="s">
+      <c r="DJ5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="DO5" s="25" t="s">
+      <c r="DK5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="DP5" s="25" t="s">
+      <c r="DL5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="DQ5" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="DR5" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="DS5" s="15" t="s">
+      <c r="DM5" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="DT5" s="15" t="s">
+      <c r="DN5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="DU5" s="29" t="s">
+      <c r="DO5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="DV5" s="25"/>
-      <c r="DW5" s="26"/>
-      <c r="DX5" s="26" t="s">
+      <c r="DP5" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="DY5" s="26" t="s">
+      <c r="DQ5" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="DZ5" s="26" t="s">
+      <c r="DR5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="EA5" s="26" t="s">
+      <c r="DS5" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="EB5" s="26" t="s">
+      <c r="DT5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="EC5" s="36"/>
-      <c r="ED5" s="26" t="s">
+      <c r="DU5" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="EE5" s="26" t="s">
+      <c r="DV5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="EF5" s="26" t="s">
+      <c r="DW5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="EG5" s="26" t="s">
+      <c r="DX5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="EH5" s="40"/>
+      <c r="DY5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="DZ5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="EA5" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="EB5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="EC5" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="ED5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="EF5" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="EG5" s="35"/>
+      <c r="EH5" s="42"/>
+      <c r="EI5" s="43"/>
+      <c r="EJ5" s="42"/>
+      <c r="EK5" s="42"/>
+      <c r="EL5" s="42"/>
+      <c r="EM5" s="42"/>
+      <c r="EN5" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="EO5" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="EP5" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="EQ5" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="ER5" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="ES5" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="ET5" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="EU5" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="EV5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="EW5" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="EX5" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="EY5" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="EZ5" s="50"/>
+      <c r="FA5" s="50"/>
+      <c r="FB5" s="44"/>
+      <c r="FC5" s="51"/>
+      <c r="FD5" s="52"/>
+      <c r="FE5" s="52"/>
+      <c r="FF5" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="FG5" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="FH5" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="FI5" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="FJ5" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="FK5" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="FL5" s="62"/>
+      <c r="FM5" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="FN5" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="FO5" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="FP5" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="FQ5" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="A1:EH1"/>
-    <mergeCell ref="F2:AR2"/>
-    <mergeCell ref="AS2:CE2"/>
-    <mergeCell ref="CF2:DF2"/>
-    <mergeCell ref="DG2:DU2"/>
-    <mergeCell ref="DV2:EH2"/>
-    <mergeCell ref="F3:U3"/>
-    <mergeCell ref="V3:AR3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="Z4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
+  <mergeCells count="70">
+    <mergeCell ref="A1:FQ1"/>
+    <mergeCell ref="G2:AV2"/>
+    <mergeCell ref="AW2:CZ2"/>
+    <mergeCell ref="DA2:EG2"/>
+    <mergeCell ref="EH2:EY2"/>
+    <mergeCell ref="EZ2:FQ2"/>
+    <mergeCell ref="I3:Y3"/>
+    <mergeCell ref="Z3:AV3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:X4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AD4:AP4"/>
+    <mergeCell ref="AQ4:AS4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="E2:E5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AP4:AP5"/>
-    <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR4:AR5"/>
-    <mergeCell ref="BW3:BW5"/>
-    <mergeCell ref="CA3:CA5"/>
-    <mergeCell ref="CB3:CB5"/>
-    <mergeCell ref="CE3:CE5"/>
-    <mergeCell ref="DF3:DF5"/>
-    <mergeCell ref="DG3:DG5"/>
-    <mergeCell ref="DH3:DH5"/>
-    <mergeCell ref="DI3:DI5"/>
-    <mergeCell ref="DJ3:DJ5"/>
-    <mergeCell ref="DK3:DK5"/>
-    <mergeCell ref="DV3:DV5"/>
-    <mergeCell ref="DW3:DW5"/>
-    <mergeCell ref="EC3:EC5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AT4:AT5"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AW3:AW5"/>
+    <mergeCell ref="AX3:AX5"/>
+    <mergeCell ref="CG3:CG5"/>
+    <mergeCell ref="CK3:CK5"/>
+    <mergeCell ref="CL3:CL5"/>
+    <mergeCell ref="CO3:CO5"/>
+    <mergeCell ref="EG3:EG5"/>
     <mergeCell ref="EH3:EH5"/>
-    <mergeCell ref="AS3:AX4"/>
-    <mergeCell ref="AY3:BA4"/>
-    <mergeCell ref="BB3:BD4"/>
-    <mergeCell ref="DS3:DU4"/>
-    <mergeCell ref="BE3:BI4"/>
-    <mergeCell ref="BJ3:BK4"/>
-    <mergeCell ref="BL3:BM4"/>
-    <mergeCell ref="BN3:BR4"/>
-    <mergeCell ref="DL3:DP4"/>
-    <mergeCell ref="BS3:BV4"/>
-    <mergeCell ref="BX3:BZ4"/>
-    <mergeCell ref="CC3:CD4"/>
-    <mergeCell ref="DQ3:DR4"/>
-    <mergeCell ref="EA3:EB4"/>
-    <mergeCell ref="CF3:CJ4"/>
-    <mergeCell ref="CK3:CT4"/>
-    <mergeCell ref="CU3:DE4"/>
-    <mergeCell ref="DX3:DZ4"/>
-    <mergeCell ref="ED3:EG4"/>
+    <mergeCell ref="EI3:EI5"/>
+    <mergeCell ref="EJ3:EJ5"/>
+    <mergeCell ref="EK3:EK5"/>
+    <mergeCell ref="EL3:EL5"/>
+    <mergeCell ref="EM3:EM5"/>
+    <mergeCell ref="EZ3:EZ5"/>
+    <mergeCell ref="FA3:FA5"/>
+    <mergeCell ref="FB3:FB5"/>
+    <mergeCell ref="FC3:FC5"/>
+    <mergeCell ref="FD3:FD5"/>
+    <mergeCell ref="FE3:FE5"/>
+    <mergeCell ref="FL3:FL5"/>
+    <mergeCell ref="FQ3:FQ5"/>
+    <mergeCell ref="BE3:BG4"/>
+    <mergeCell ref="BH3:BJ4"/>
+    <mergeCell ref="EW3:EY4"/>
+    <mergeCell ref="FF3:FH4"/>
+    <mergeCell ref="FI3:FK4"/>
+    <mergeCell ref="BP3:BQ4"/>
+    <mergeCell ref="BR3:BS4"/>
+    <mergeCell ref="CH3:CJ4"/>
+    <mergeCell ref="BK3:BO4"/>
+    <mergeCell ref="AY3:BD4"/>
+    <mergeCell ref="EN3:ER4"/>
+    <mergeCell ref="BT3:BZ4"/>
+    <mergeCell ref="CM3:CN4"/>
+    <mergeCell ref="CA3:CF4"/>
+    <mergeCell ref="CP3:CZ4"/>
+    <mergeCell ref="ES3:EV4"/>
+    <mergeCell ref="FM3:FP4"/>
+    <mergeCell ref="DH3:DQ4"/>
+    <mergeCell ref="DA3:DG4"/>
+    <mergeCell ref="DR3:EF4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DG3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH3">
       <formula1>"双分,整体"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="DW3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FC3">
       <formula1>"12-50普通,16-50,12-50套筒"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EC3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FQ3 FQ5">
+      <formula1>"正开模,倒开模"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FK3 FL3">
       <formula1>"T0,T1,T2,T3,点浇口,侧浇口"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH3 EH5">
-      <formula1>"正开模,倒开模"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
+++ b/microservice-production/microservice-data-analysis-api/src/main/resources/excelTemplate/allData.xlsx
@@ -19,7 +19,7 @@
     <author>Xiang Yang</author>
   </authors>
   <commentList>
-    <comment ref="DP5" authorId="0">
+    <comment ref="DT5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="179">
   <si>
     <t>数据关联总表</t>
   </si>
@@ -118,15 +118,49 @@
     <t>镀膜片模拟结果</t>
   </si>
   <si>
+    <t>分型面毛边(um)</t>
+  </si>
+  <si>
+    <t>熔接线（黄光灯下是否存在）</t>
+  </si>
+  <si>
+    <t>外观</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>周期及成本</t>
+  </si>
+  <si>
+    <t>结构方案总数</t>
+  </si>
+  <si>
+    <t>光学区域</t>
+  </si>
+  <si>
+    <t>整体部分</t>
+  </si>
+  <si>
+    <t>机构部分</t>
+  </si>
+  <si>
+    <t>组立图</t>
+  </si>
+  <si>
+    <t>流道类型</t>
+  </si>
+  <si>
+    <r>
+      <t>模流外径收缩率(</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>分型面</t>
+      <t>‰</t>
     </r>
     <r>
       <rPr>
@@ -135,64 +169,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>毛边(um)</t>
-    </r>
-  </si>
-  <si>
-    <t>熔接线（黄光灯下是否存在）</t>
-  </si>
-  <si>
-    <t>外观</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>周期及成本</t>
-  </si>
-  <si>
-    <t>光学区域</t>
-  </si>
-  <si>
-    <t>整体部分</t>
-  </si>
-  <si>
-    <t>机构部分</t>
-  </si>
-  <si>
-    <t>组立图</t>
-  </si>
-  <si>
-    <t>流道类型</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模流外径收缩率(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>)</t>
     </r>
   </si>
@@ -215,6 +191,9 @@
     <t>竞品信息</t>
   </si>
   <si>
+    <t>模具类型总数</t>
+  </si>
+  <si>
     <t>模仁钝化工艺</t>
   </si>
   <si>
@@ -256,12 +235,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>VP压力(Kgf/cm</t>
     </r>
     <r>
@@ -339,9 +312,6 @@
     <t>保压6时间(s)</t>
   </si>
   <si>
-    <t>保压速度(mm/s)</t>
-  </si>
-  <si>
     <t>压板位置(mm)</t>
   </si>
   <si>
@@ -369,34 +339,34 @@
     <t>R2矢高极差(um)</t>
   </si>
   <si>
-    <t>白片外径偏心(%/规格）</t>
-  </si>
-  <si>
-    <t>白片坎合偏心(%/规格）</t>
-  </si>
-  <si>
-    <t>白片面间偏心(%/规格）</t>
-  </si>
-  <si>
-    <t>退火制程</t>
-  </si>
-  <si>
-    <t>BP坎合圆度(um)</t>
-  </si>
-  <si>
-    <t>DMP坎合圆度(um)</t>
-  </si>
-  <si>
-    <t>白片外径均值(um)</t>
-  </si>
-  <si>
-    <t>白片外径极差(um)</t>
-  </si>
-  <si>
-    <t>白片外径圆度(um)</t>
-  </si>
-  <si>
-    <t>白片外径收缩率(‰)</t>
+    <t>白片外径偏心(%/规格)-泰勒</t>
+  </si>
+  <si>
+    <t>白片坎合偏心(%/规格)-400T</t>
+  </si>
+  <si>
+    <t>白片面间偏心(%/规格)-泰勒</t>
+  </si>
+  <si>
+    <t>退火制程（退火温度/时间）</t>
+  </si>
+  <si>
+    <t>BP坎合圆度(um)-400T</t>
+  </si>
+  <si>
+    <t>DMP坎合圆度(um)-400T</t>
+  </si>
+  <si>
+    <t>白片外径均值(um)-三坐标</t>
+  </si>
+  <si>
+    <t>白片外径极差(um)-三坐标</t>
+  </si>
+  <si>
+    <t>白片外径圆度(um)-三坐标</t>
+  </si>
+  <si>
+    <t>白片外径收缩率(‰)-三坐标</t>
   </si>
   <si>
     <t>白片外径粗糙度(um)</t>
@@ -447,12 +417,6 @@
     <t>ABC档合格数分布</t>
   </si>
   <si>
-    <t>结构方案总数</t>
-  </si>
-  <si>
-    <t>模具类型总数</t>
-  </si>
-  <si>
     <t>模具费用</t>
   </si>
   <si>
@@ -475,6 +439,18 @@
   </si>
   <si>
     <t>项目量产</t>
+  </si>
+  <si>
+    <t>MTF平均良率</t>
+  </si>
+  <si>
+    <t>量产时长（首次）</t>
+  </si>
+  <si>
+    <t>量产出货量（首次）</t>
+  </si>
+  <si>
+    <t>项目立项时间</t>
   </si>
   <si>
     <t>光学最厚壁厚(um)</t>
@@ -640,252 +616,37 @@
     <t>机构逃肉</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>整体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>平均体积收缩率差值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R1有效径</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R2有效径</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R1坎合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R2坎合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四点极差</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模拟面型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R1(nm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模拟面型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R2(nm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模拟面型图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>模拟面型图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R2</t>
-    </r>
+    <t>整体平均体积收缩率差值(%)</t>
+  </si>
+  <si>
+    <t>R1有效径四点极差(%)</t>
+  </si>
+  <si>
+    <t>R2有效径四点极差(%)</t>
+  </si>
+  <si>
+    <t>R1坎合四点极差(%)</t>
+  </si>
+  <si>
+    <t>R2坎合四点极差(%)</t>
+  </si>
+  <si>
+    <t>模拟面型PV值-R1(nm)</t>
+  </si>
+  <si>
+    <t>模拟面型PV值-R2(nm)</t>
+  </si>
+  <si>
+    <t>模拟面型图R1</t>
+  </si>
+  <si>
+    <t>模拟面型图R2</t>
+  </si>
+  <si>
+    <t>预补正面型R1</t>
+  </si>
+  <si>
+    <t>预补正面型R2</t>
   </si>
   <si>
     <t>竞品名称</t>
@@ -897,129 +658,22 @@
     <t>竞品组立图</t>
   </si>
   <si>
-    <t>一级分流道(mm)</t>
+    <t>主流道(mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一级分流道(mm) </t>
   </si>
   <si>
     <t xml:space="preserve">二级分流道(mm) </t>
   </si>
   <si>
-    <t xml:space="preserve">三级分流道(mm) </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分型面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>排气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(um)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分割位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>排气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(um)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分割位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>排气</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(um)</t>
-    </r>
+    <t>分型面排气(um)</t>
+  </si>
+  <si>
+    <t>R1分割位排气(um)</t>
+  </si>
+  <si>
+    <t>R2分割位排气(um)</t>
   </si>
   <si>
     <t>宽度(mm)</t>
@@ -1044,7 +698,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,20 +715,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1260,7 +906,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1743,10 +1388,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1755,33 +1400,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1791,101 +1439,98 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1898,13 +1543,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1913,181 +1558,214 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2438,28 +2116,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FQ5"/>
+  <dimension ref="A1:FZ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="FR16" sqref="FR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="64" max="64" width="9.875" customWidth="1"/>
-    <col min="65" max="65" width="10.75" customWidth="1"/>
-    <col min="160" max="160" width="9.5" customWidth="1"/>
-    <col min="161" max="161" width="9.375" customWidth="1"/>
-    <col min="162" max="162" width="15" customWidth="1"/>
-    <col min="163" max="163" width="15.25" customWidth="1"/>
-    <col min="164" max="164" width="15.375" customWidth="1"/>
-    <col min="165" max="165" width="10.875" customWidth="1"/>
-    <col min="166" max="166" width="10.125" customWidth="1"/>
-    <col min="171" max="171" width="12.75" customWidth="1"/>
-    <col min="172" max="172" width="13.625" customWidth="1"/>
+    <col min="63" max="63" width="9.875" customWidth="1"/>
+    <col min="64" max="64" width="10.75" customWidth="1"/>
+    <col min="167" max="167" width="9.5" customWidth="1"/>
+    <col min="168" max="168" width="9.375" customWidth="1"/>
+    <col min="169" max="169" width="15" customWidth="1"/>
+    <col min="170" max="170" width="15.25" customWidth="1"/>
+    <col min="171" max="171" width="15.375" customWidth="1"/>
+    <col min="172" max="172" width="10.875" customWidth="1"/>
+    <col min="173" max="173" width="10.125" customWidth="1"/>
+    <col min="178" max="178" width="12.75" customWidth="1"/>
+    <col min="179" max="179" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:173">
+    <row r="1" ht="22.5" spans="1:180">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2635,8 +2313,15 @@
       <c r="FO1" s="1"/>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
+      <c r="FR1" s="1"/>
+      <c r="FS1" s="1"/>
+      <c r="FT1" s="1"/>
+      <c r="FU1" s="1"/>
+      <c r="FV1" s="1"/>
+      <c r="FW1" s="1"/>
+      <c r="FX1" s="1"/>
     </row>
-    <row r="2" ht="20.25" spans="1:173">
+    <row r="2" ht="20.25" spans="1:180">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2697,11 +2382,11 @@
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
       <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="6" t="s">
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="AW2" s="6"/>
       <c r="AX2" s="6"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -2756,49 +2441,49 @@
       <c r="CW2" s="6"/>
       <c r="CX2" s="6"/>
       <c r="CY2" s="6"/>
-      <c r="CZ2" s="19"/>
-      <c r="DA2" s="30" t="s">
+      <c r="CZ2" s="6"/>
+      <c r="DA2" s="6"/>
+      <c r="DB2" s="6"/>
+      <c r="DC2" s="18"/>
+      <c r="DD2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="DB2" s="30"/>
-      <c r="DC2" s="30"/>
-      <c r="DD2" s="30"/>
-      <c r="DE2" s="30"/>
-      <c r="DF2" s="30"/>
-      <c r="DG2" s="30"/>
-      <c r="DH2" s="30"/>
-      <c r="DI2" s="30"/>
-      <c r="DJ2" s="30"/>
-      <c r="DK2" s="30"/>
-      <c r="DL2" s="30"/>
-      <c r="DM2" s="30"/>
-      <c r="DN2" s="30"/>
-      <c r="DO2" s="30"/>
-      <c r="DP2" s="30"/>
-      <c r="DQ2" s="30"/>
-      <c r="DR2" s="30"/>
-      <c r="DS2" s="30"/>
-      <c r="DT2" s="30"/>
-      <c r="DU2" s="30"/>
-      <c r="DV2" s="30"/>
-      <c r="DW2" s="30"/>
-      <c r="DX2" s="30"/>
-      <c r="DY2" s="30"/>
-      <c r="DZ2" s="30"/>
-      <c r="EA2" s="30"/>
-      <c r="EB2" s="30"/>
-      <c r="EC2" s="30"/>
-      <c r="ED2" s="30"/>
-      <c r="EE2" s="30"/>
-      <c r="EF2" s="30"/>
-      <c r="EG2" s="30"/>
-      <c r="EH2" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="6"/>
+      <c r="DJ2" s="6"/>
+      <c r="DK2" s="6"/>
+      <c r="DL2" s="6"/>
+      <c r="DM2" s="6"/>
+      <c r="DN2" s="6"/>
+      <c r="DO2" s="6"/>
+      <c r="DP2" s="6"/>
+      <c r="DQ2" s="6"/>
+      <c r="DR2" s="6"/>
+      <c r="DS2" s="6"/>
+      <c r="DT2" s="6"/>
+      <c r="DU2" s="6"/>
+      <c r="DV2" s="6"/>
+      <c r="DW2" s="6"/>
+      <c r="DX2" s="6"/>
+      <c r="DY2" s="6"/>
+      <c r="DZ2" s="6"/>
+      <c r="EA2" s="6"/>
+      <c r="EB2" s="6"/>
+      <c r="EC2" s="6"/>
+      <c r="ED2" s="6"/>
+      <c r="EE2" s="6"/>
+      <c r="EF2" s="6"/>
+      <c r="EG2" s="6"/>
+      <c r="EH2" s="6"/>
       <c r="EI2" s="6"/>
       <c r="EJ2" s="6"/>
-      <c r="EK2" s="6"/>
-      <c r="EL2" s="6"/>
+      <c r="EK2" s="18"/>
+      <c r="EL2" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="EM2" s="6"/>
       <c r="EN2" s="6"/>
       <c r="EO2" s="6"/>
@@ -2812,28 +2497,35 @@
       <c r="EW2" s="6"/>
       <c r="EX2" s="6"/>
       <c r="EY2" s="6"/>
-      <c r="EZ2" s="49" t="s">
+      <c r="EZ2" s="6"/>
+      <c r="FA2" s="6"/>
+      <c r="FB2" s="6"/>
+      <c r="FC2" s="6"/>
+      <c r="FD2" s="6"/>
+      <c r="FE2" s="6"/>
+      <c r="FF2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="FA2" s="49"/>
-      <c r="FB2" s="49"/>
-      <c r="FC2" s="49"/>
-      <c r="FD2" s="49"/>
-      <c r="FE2" s="49"/>
-      <c r="FF2" s="49"/>
-      <c r="FG2" s="49"/>
-      <c r="FH2" s="49"/>
-      <c r="FI2" s="49"/>
-      <c r="FJ2" s="49"/>
-      <c r="FK2" s="49"/>
-      <c r="FL2" s="49"/>
-      <c r="FM2" s="49"/>
-      <c r="FN2" s="49"/>
-      <c r="FO2" s="49"/>
-      <c r="FP2" s="49"/>
-      <c r="FQ2" s="49"/>
+      <c r="FG2" s="56"/>
+      <c r="FH2" s="56"/>
+      <c r="FI2" s="56"/>
+      <c r="FJ2" s="56"/>
+      <c r="FK2" s="56"/>
+      <c r="FL2" s="56"/>
+      <c r="FM2" s="56"/>
+      <c r="FN2" s="56"/>
+      <c r="FO2" s="56"/>
+      <c r="FP2" s="56"/>
+      <c r="FQ2" s="56"/>
+      <c r="FR2" s="56"/>
+      <c r="FS2" s="56"/>
+      <c r="FT2" s="56"/>
+      <c r="FU2" s="56"/>
+      <c r="FV2" s="56"/>
+      <c r="FW2" s="56"/>
+      <c r="FX2" s="56"/>
     </row>
-    <row r="3" ht="18.75" spans="1:173">
+    <row r="3" ht="18.75" spans="1:182">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4"/>
@@ -2846,259 +2538,272 @@
       <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="16" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="17" t="s">
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="17" t="s">
+      <c r="AW3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="16" t="s">
+      <c r="AX3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16" t="s">
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16" t="s">
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="16" t="s">
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="16"/>
-      <c r="BN3" s="16"/>
-      <c r="BO3" s="16"/>
-      <c r="BP3" s="16" t="s">
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="16" t="s">
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="BS3" s="16"/>
-      <c r="BT3" s="16" t="s">
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="BU3" s="16"/>
-      <c r="BV3" s="16"/>
-      <c r="BW3" s="16"/>
-      <c r="BX3" s="16"/>
-      <c r="BY3" s="16"/>
-      <c r="BZ3" s="16"/>
-      <c r="CA3" s="16" t="s">
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CB3" s="16"/>
-      <c r="CC3" s="16"/>
-      <c r="CD3" s="16"/>
-      <c r="CE3" s="16"/>
-      <c r="CF3" s="16"/>
-      <c r="CG3" s="8" t="s">
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="CH3" s="16" t="s">
+      <c r="CG3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="CI3" s="16"/>
-      <c r="CJ3" s="16"/>
-      <c r="CK3" s="22" t="s">
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="CL3" s="8" t="s">
+      <c r="CK3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="CM3" s="16" t="s">
+      <c r="CL3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="CN3" s="16"/>
-      <c r="CO3" s="23" t="s">
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="CP3" s="24" t="s">
+      <c r="CO3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="CQ3" s="25"/>
-      <c r="CR3" s="25"/>
-      <c r="CS3" s="25"/>
-      <c r="CT3" s="25"/>
-      <c r="CU3" s="25"/>
-      <c r="CV3" s="25"/>
-      <c r="CW3" s="25"/>
-      <c r="CX3" s="25"/>
-      <c r="CY3" s="25"/>
-      <c r="CZ3" s="25"/>
-      <c r="DA3" s="24" t="s">
+      <c r="CP3" s="22"/>
+      <c r="CQ3" s="22"/>
+      <c r="CR3" s="22"/>
+      <c r="CS3" s="22"/>
+      <c r="CT3" s="22"/>
+      <c r="CU3" s="22"/>
+      <c r="CV3" s="22"/>
+      <c r="CW3" s="22"/>
+      <c r="CX3" s="22"/>
+      <c r="CY3" s="22"/>
+      <c r="CZ3" s="22"/>
+      <c r="DA3" s="22"/>
+      <c r="DB3" s="22"/>
+      <c r="DC3" s="22"/>
+      <c r="DD3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="DB3" s="25"/>
-      <c r="DC3" s="25"/>
-      <c r="DD3" s="25"/>
-      <c r="DE3" s="25"/>
-      <c r="DF3" s="25"/>
-      <c r="DG3" s="31"/>
-      <c r="DH3" s="32" t="s">
+      <c r="DE3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="DI3" s="32"/>
-      <c r="DJ3" s="32"/>
-      <c r="DK3" s="32"/>
-      <c r="DL3" s="32"/>
+      <c r="DF3" s="22"/>
+      <c r="DG3" s="22"/>
+      <c r="DH3" s="22"/>
+      <c r="DI3" s="22"/>
+      <c r="DJ3" s="22"/>
+      <c r="DK3" s="31"/>
+      <c r="DL3" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="DM3" s="32"/>
       <c r="DN3" s="32"/>
       <c r="DO3" s="32"/>
       <c r="DP3" s="32"/>
       <c r="DQ3" s="32"/>
-      <c r="DR3" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="DS3" s="25"/>
-      <c r="DT3" s="25"/>
-      <c r="DU3" s="25"/>
-      <c r="DV3" s="25"/>
-      <c r="DW3" s="25"/>
-      <c r="DX3" s="25"/>
-      <c r="DY3" s="25"/>
-      <c r="DZ3" s="25"/>
-      <c r="EA3" s="25"/>
-      <c r="EB3" s="25"/>
-      <c r="EC3" s="25"/>
-      <c r="ED3" s="25"/>
-      <c r="EE3" s="25"/>
-      <c r="EF3" s="31"/>
-      <c r="EG3" s="35" t="s">
+      <c r="DR3" s="32"/>
+      <c r="DS3" s="32"/>
+      <c r="DT3" s="32"/>
+      <c r="DU3" s="32"/>
+      <c r="DV3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="EH3" s="36" t="s">
+      <c r="DW3" s="35"/>
+      <c r="DX3" s="35"/>
+      <c r="DY3" s="35"/>
+      <c r="DZ3" s="35"/>
+      <c r="EA3" s="35"/>
+      <c r="EB3" s="35"/>
+      <c r="EC3" s="35"/>
+      <c r="ED3" s="35"/>
+      <c r="EE3" s="35"/>
+      <c r="EF3" s="35"/>
+      <c r="EG3" s="35"/>
+      <c r="EH3" s="35"/>
+      <c r="EI3" s="35"/>
+      <c r="EJ3" s="39"/>
+      <c r="EK3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="EL3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="EI3" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="EJ3" s="36" t="s">
+      <c r="EM3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="EK3" s="36" t="s">
+      <c r="EN3" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="EL3" s="36" t="s">
+      <c r="EO3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="EM3" s="36" t="s">
+      <c r="EP3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="EN3" s="38" t="s">
+      <c r="EQ3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="EO3" s="45"/>
-      <c r="EP3" s="45"/>
-      <c r="EQ3" s="45"/>
-      <c r="ER3" s="46"/>
-      <c r="ES3" s="38" t="s">
+      <c r="ER3" s="44" t="s">
         <v>41</v>
       </c>
+      <c r="ES3" s="45"/>
       <c r="ET3" s="45"/>
       <c r="EU3" s="45"/>
-      <c r="EV3" s="45"/>
-      <c r="EW3" s="38" t="s">
+      <c r="EV3" s="46"/>
+      <c r="EW3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="EX3" s="45"/>
-      <c r="EY3" s="45"/>
-      <c r="EZ3" s="50" t="s">
+      <c r="EX3" s="52"/>
+      <c r="EY3" s="52"/>
+      <c r="EZ3" s="52"/>
+      <c r="FA3" s="52"/>
+      <c r="FB3" s="52"/>
+      <c r="FC3" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="FD3" s="52"/>
+      <c r="FE3" s="52"/>
+      <c r="FF3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="FA3" s="50" t="s">
+      <c r="FG3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="FB3" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="FC3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="FD3" s="52" t="s">
+      <c r="FH3" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="FE3" s="50" t="s">
+      <c r="FI3" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="FF3" s="54" t="s">
+      <c r="FJ3" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="FK3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="FG3" s="54"/>
-      <c r="FH3" s="55"/>
-      <c r="FI3" s="56" t="s">
+      <c r="FL3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="FJ3" s="56"/>
-      <c r="FK3" s="56"/>
-      <c r="FL3" s="57" t="s">
+      <c r="FM3" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="FM3" s="63" t="s">
+      <c r="FN3" s="65"/>
+      <c r="FO3" s="66"/>
+      <c r="FP3" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="FN3" s="54"/>
-      <c r="FO3" s="54"/>
-      <c r="FP3" s="55"/>
-      <c r="FQ3" s="64" t="s">
+      <c r="FQ3" s="67"/>
+      <c r="FR3" s="67"/>
+      <c r="FS3" s="68" t="s">
         <v>50</v>
       </c>
+      <c r="FT3" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="FU3" s="65"/>
+      <c r="FV3" s="65"/>
+      <c r="FW3" s="66"/>
+      <c r="FX3" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="FY3" s="76"/>
+      <c r="FZ3" s="76"/>
     </row>
-    <row r="4" ht="18.75" spans="1:173">
+    <row r="4" ht="18.75" spans="1:182">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -3107,660 +2812,688 @@
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="I4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="20" t="s">
+      <c r="AC4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU4" s="14" t="s">
+      <c r="AD4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AV4" s="14" t="s">
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="16"/>
-      <c r="AZ4" s="16"/>
-      <c r="BA4" s="16"/>
-      <c r="BB4" s="16"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="16"/>
-      <c r="BE4" s="16"/>
-      <c r="BF4" s="16"/>
-      <c r="BG4" s="16"/>
-      <c r="BH4" s="16"/>
-      <c r="BI4" s="16"/>
-      <c r="BJ4" s="16"/>
-      <c r="BK4" s="16"/>
-      <c r="BL4" s="16"/>
-      <c r="BM4" s="16"/>
-      <c r="BN4" s="16"/>
-      <c r="BO4" s="16"/>
-      <c r="BP4" s="16"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="16"/>
-      <c r="BS4" s="16"/>
-      <c r="BT4" s="16"/>
-      <c r="BU4" s="16"/>
-      <c r="BV4" s="16"/>
-      <c r="BW4" s="16"/>
-      <c r="BX4" s="16"/>
-      <c r="BY4" s="16"/>
-      <c r="BZ4" s="16"/>
-      <c r="CA4" s="16"/>
-      <c r="CB4" s="16"/>
-      <c r="CC4" s="16"/>
-      <c r="CD4" s="16"/>
-      <c r="CE4" s="16"/>
-      <c r="CF4" s="16"/>
-      <c r="CG4" s="8"/>
-      <c r="CH4" s="16"/>
-      <c r="CI4" s="16"/>
-      <c r="CJ4" s="16"/>
+      <c r="AT4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="15"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="8"/>
       <c r="CK4" s="8"/>
-      <c r="CL4" s="8"/>
-      <c r="CM4" s="16"/>
-      <c r="CN4" s="16"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="20"/>
       <c r="CO4" s="23"/>
-      <c r="CP4" s="26"/>
-      <c r="CQ4" s="27"/>
-      <c r="CR4" s="27"/>
-      <c r="CS4" s="27"/>
-      <c r="CT4" s="27"/>
-      <c r="CU4" s="27"/>
-      <c r="CV4" s="27"/>
-      <c r="CW4" s="27"/>
-      <c r="CX4" s="27"/>
-      <c r="CY4" s="27"/>
-      <c r="CZ4" s="27"/>
-      <c r="DA4" s="26"/>
-      <c r="DB4" s="27"/>
-      <c r="DC4" s="27"/>
-      <c r="DD4" s="27"/>
-      <c r="DE4" s="27"/>
-      <c r="DF4" s="27"/>
-      <c r="DG4" s="33"/>
-      <c r="DH4" s="32"/>
-      <c r="DI4" s="32"/>
-      <c r="DJ4" s="32"/>
-      <c r="DK4" s="32"/>
+      <c r="CP4" s="24"/>
+      <c r="CQ4" s="24"/>
+      <c r="CR4" s="24"/>
+      <c r="CS4" s="24"/>
+      <c r="CT4" s="24"/>
+      <c r="CU4" s="24"/>
+      <c r="CV4" s="24"/>
+      <c r="CW4" s="24"/>
+      <c r="CX4" s="24"/>
+      <c r="CY4" s="24"/>
+      <c r="CZ4" s="24"/>
+      <c r="DA4" s="24"/>
+      <c r="DB4" s="24"/>
+      <c r="DC4" s="24"/>
+      <c r="DD4" s="28"/>
+      <c r="DE4" s="24"/>
+      <c r="DF4" s="24"/>
+      <c r="DG4" s="24"/>
+      <c r="DH4" s="24"/>
+      <c r="DI4" s="24"/>
+      <c r="DJ4" s="24"/>
+      <c r="DK4" s="33"/>
       <c r="DL4" s="32"/>
       <c r="DM4" s="32"/>
       <c r="DN4" s="32"/>
       <c r="DO4" s="32"/>
       <c r="DP4" s="32"/>
       <c r="DQ4" s="32"/>
-      <c r="DR4" s="26"/>
-      <c r="DS4" s="27"/>
-      <c r="DT4" s="27"/>
-      <c r="DU4" s="27"/>
-      <c r="DV4" s="27"/>
-      <c r="DW4" s="27"/>
-      <c r="DX4" s="27"/>
-      <c r="DY4" s="27"/>
-      <c r="DZ4" s="27"/>
-      <c r="EA4" s="27"/>
-      <c r="EB4" s="27"/>
-      <c r="EC4" s="27"/>
-      <c r="ED4" s="27"/>
-      <c r="EE4" s="27"/>
-      <c r="EF4" s="33"/>
-      <c r="EG4" s="35"/>
-      <c r="EH4" s="39"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="39"/>
-      <c r="EK4" s="39"/>
-      <c r="EL4" s="39"/>
-      <c r="EM4" s="39"/>
-      <c r="EN4" s="41"/>
-      <c r="EO4" s="47"/>
-      <c r="EP4" s="47"/>
-      <c r="EQ4" s="47"/>
-      <c r="ER4" s="48"/>
-      <c r="ES4" s="41"/>
-      <c r="ET4" s="47"/>
-      <c r="EU4" s="47"/>
-      <c r="EV4" s="47"/>
-      <c r="EW4" s="41"/>
-      <c r="EX4" s="47"/>
-      <c r="EY4" s="47"/>
-      <c r="EZ4" s="50"/>
-      <c r="FA4" s="50"/>
-      <c r="FB4" s="44"/>
-      <c r="FC4" s="51"/>
-      <c r="FD4" s="52"/>
-      <c r="FE4" s="52"/>
-      <c r="FF4" s="58"/>
-      <c r="FG4" s="58"/>
-      <c r="FH4" s="59"/>
-      <c r="FI4" s="56"/>
-      <c r="FJ4" s="56"/>
-      <c r="FK4" s="56"/>
-      <c r="FL4" s="60"/>
-      <c r="FM4" s="65"/>
-      <c r="FN4" s="58"/>
-      <c r="FO4" s="58"/>
-      <c r="FP4" s="59"/>
-      <c r="FQ4" s="66"/>
+      <c r="DR4" s="32"/>
+      <c r="DS4" s="32"/>
+      <c r="DT4" s="32"/>
+      <c r="DU4" s="32"/>
+      <c r="DV4" s="36"/>
+      <c r="DW4" s="37"/>
+      <c r="DX4" s="37"/>
+      <c r="DY4" s="37"/>
+      <c r="DZ4" s="37"/>
+      <c r="EA4" s="37"/>
+      <c r="EB4" s="37"/>
+      <c r="EC4" s="37"/>
+      <c r="ED4" s="37"/>
+      <c r="EE4" s="37"/>
+      <c r="EF4" s="37"/>
+      <c r="EG4" s="37"/>
+      <c r="EH4" s="37"/>
+      <c r="EI4" s="37"/>
+      <c r="EJ4" s="41"/>
+      <c r="EK4" s="8"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="42"/>
+      <c r="EN4" s="42"/>
+      <c r="EO4" s="42"/>
+      <c r="EP4" s="42"/>
+      <c r="EQ4" s="42"/>
+      <c r="ER4" s="47"/>
+      <c r="ES4" s="48"/>
+      <c r="ET4" s="48"/>
+      <c r="EU4" s="48"/>
+      <c r="EV4" s="49"/>
+      <c r="EW4" s="53"/>
+      <c r="EX4" s="54"/>
+      <c r="EY4" s="54"/>
+      <c r="EZ4" s="54"/>
+      <c r="FA4" s="54"/>
+      <c r="FB4" s="54"/>
+      <c r="FC4" s="53"/>
+      <c r="FD4" s="54"/>
+      <c r="FE4" s="54"/>
+      <c r="FF4" s="57"/>
+      <c r="FG4" s="57"/>
+      <c r="FH4" s="62"/>
+      <c r="FI4" s="59"/>
+      <c r="FJ4" s="60"/>
+      <c r="FK4" s="61"/>
+      <c r="FL4" s="61"/>
+      <c r="FM4" s="70"/>
+      <c r="FN4" s="70"/>
+      <c r="FO4" s="71"/>
+      <c r="FP4" s="67"/>
+      <c r="FQ4" s="67"/>
+      <c r="FR4" s="67"/>
+      <c r="FS4" s="72"/>
+      <c r="FT4" s="73"/>
+      <c r="FU4" s="70"/>
+      <c r="FV4" s="70"/>
+      <c r="FW4" s="71"/>
+      <c r="FX4" s="77"/>
+      <c r="FY4" s="76"/>
+      <c r="FZ4" s="76"/>
     </row>
-    <row r="5" ht="57" spans="1:173">
+    <row r="5" ht="57" spans="1:182">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="P5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="Q5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="R5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="S5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="T5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="U5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="V5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14" t="s">
+      <c r="W5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AE5" s="14" t="s">
+      <c r="AA5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AE5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="AH5" s="14" t="s">
+      <c r="AF5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AG5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AJ5" s="14" t="s">
+      <c r="AH5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AI5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AL5" s="14" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AK5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AL5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AM5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AP5" s="14" t="s">
+      <c r="AN5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AQ5" s="14" t="s">
+      <c r="AO5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AR5" s="14" t="s">
+      <c r="AP5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AS5" s="14" t="s">
+      <c r="AQ5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="14"/>
-      <c r="AV5" s="14"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18"/>
+      <c r="AR5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="AY5" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AZ5" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BA5" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BB5" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BC5" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BD5" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="BE5" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BF5" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BG5" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BH5" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="BI5" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BJ5" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BK5" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="BL5" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="BM5" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="BN5" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="BO5" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BP5" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BQ5" s="8" t="s">
         <v>97</v>
       </c>
       <c r="BR5" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BS5" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BT5" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="BU5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="BV5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BX5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BZ5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="BV5" s="22" t="s">
+      <c r="CA5" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="BW5" s="22" t="s">
+      <c r="CB5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="BX5" s="8" t="s">
+      <c r="CC5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BY5" s="8" t="s">
+      <c r="CD5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BZ5" s="8" t="s">
+      <c r="CE5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="CA5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="CB5" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="CC5" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="CD5" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="CF5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="CG5" s="8"/>
+      <c r="CF5" s="8"/>
+      <c r="CG5" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="CH5" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="CI5" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="CJ5" s="8" t="s">
-        <v>107</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="CJ5" s="8"/>
       <c r="CK5" s="8"/>
-      <c r="CL5" s="8"/>
+      <c r="CL5" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="CM5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="CN5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="CO5" s="8"/>
-      <c r="CP5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="CQ5" s="28" t="s">
+      <c r="CN5" s="8"/>
+      <c r="CO5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="CR5" s="28" t="s">
+      <c r="CP5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="CQ5" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="CR5" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="CS5" s="28" t="s">
+      <c r="CS5" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="CT5" s="29" t="s">
+      <c r="CT5" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="CU5" s="29" t="s">
+      <c r="CU5" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="CV5" s="29" t="s">
+      <c r="CV5" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="CW5" s="29" t="s">
+      <c r="CW5" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="CX5" s="29" t="s">
+      <c r="CX5" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="CY5" s="29" t="s">
+      <c r="CY5" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="CZ5" s="28" t="s">
+      <c r="CZ5" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="DA5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="DB5" s="8" t="s">
+      <c r="DA5" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="DC5" s="8" t="s">
+      <c r="DB5" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="DD5" s="8" t="s">
+      <c r="DC5" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="DE5" s="8" t="s">
+      <c r="DD5" s="28"/>
+      <c r="DE5" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="DF5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="DF5" s="22" t="s">
+      <c r="DG5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="DG5" s="22" t="s">
+      <c r="DH5" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="DH5" s="8" t="s">
+      <c r="DI5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="DI5" s="8" t="s">
+      <c r="DJ5" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="DJ5" s="8" t="s">
+      <c r="DK5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="DK5" s="8" t="s">
+      <c r="DL5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="DL5" s="8" t="s">
+      <c r="DM5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="DM5" s="8" t="s">
+      <c r="DN5" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="DN5" s="8" t="s">
+      <c r="DO5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="DO5" s="8" t="s">
+      <c r="DP5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="DP5" s="34" t="s">
+      <c r="DQ5" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="DQ5" s="34" t="s">
+      <c r="DR5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="DR5" s="8" t="s">
+      <c r="DS5" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="DS5" s="8" t="s">
+      <c r="DT5" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="DT5" s="8" t="s">
+      <c r="DU5" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="DU5" s="8" t="s">
+      <c r="DV5" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="DV5" s="8" t="s">
+      <c r="DW5" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="DW5" s="8" t="s">
+      <c r="DX5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="DX5" s="8" t="s">
+      <c r="DY5" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="DY5" s="8" t="s">
+      <c r="DZ5" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="DZ5" s="8" t="s">
+      <c r="EA5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="EA5" s="8" t="s">
+      <c r="EB5" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="EB5" s="22" t="s">
+      <c r="EC5" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="EC5" s="22" t="s">
+      <c r="ED5" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="ED5" s="8" t="s">
+      <c r="EE5" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="EE5" s="22" t="s">
+      <c r="EF5" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="EF5" s="22" t="s">
+      <c r="EG5" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="EG5" s="35"/>
-      <c r="EH5" s="42"/>
-      <c r="EI5" s="43"/>
-      <c r="EJ5" s="42"/>
-      <c r="EK5" s="42"/>
-      <c r="EL5" s="42"/>
-      <c r="EM5" s="42"/>
-      <c r="EN5" s="44" t="s">
+      <c r="EH5" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="EO5" s="44" t="s">
+      <c r="EI5" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="EP5" s="44" t="s">
+      <c r="EJ5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="EQ5" s="44" t="s">
+      <c r="EK5" s="8"/>
+      <c r="EL5" s="43"/>
+      <c r="EM5" s="43"/>
+      <c r="EN5" s="43"/>
+      <c r="EO5" s="43"/>
+      <c r="EP5" s="43"/>
+      <c r="EQ5" s="43"/>
+      <c r="ER5" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="ER5" s="44" t="s">
+      <c r="ES5" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="ES5" s="44" t="s">
+      <c r="ET5" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="ET5" s="44" t="s">
+      <c r="EU5" s="50" t="s">
         <v>158</v>
       </c>
-      <c r="EU5" s="35" t="s">
+      <c r="EV5" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="EV5" s="35" t="s">
+      <c r="EW5" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="EW5" s="35" t="s">
+      <c r="EX5" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="EX5" s="35" t="s">
+      <c r="EY5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="EY5" s="53" t="s">
+      <c r="EZ5" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="EZ5" s="50"/>
-      <c r="FA5" s="50"/>
-      <c r="FB5" s="44"/>
-      <c r="FC5" s="51"/>
-      <c r="FD5" s="52"/>
-      <c r="FE5" s="52"/>
-      <c r="FF5" s="61" t="s">
+      <c r="FA5" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="FG5" s="51" t="s">
+      <c r="FB5" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="FH5" s="51" t="s">
+      <c r="FC5" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="FI5" s="44" t="s">
+      <c r="FD5" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="FJ5" s="44" t="s">
+      <c r="FE5" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="FK5" s="44" t="s">
+      <c r="FF5" s="57"/>
+      <c r="FG5" s="57"/>
+      <c r="FH5" s="64"/>
+      <c r="FI5" s="59"/>
+      <c r="FJ5" s="60"/>
+      <c r="FK5" s="61"/>
+      <c r="FL5" s="61"/>
+      <c r="FM5" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="FL5" s="62"/>
-      <c r="FM5" s="51" t="s">
+      <c r="FN5" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="FN5" s="51" t="s">
+      <c r="FO5" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="FO5" s="51" t="s">
+      <c r="FP5" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="FP5" s="51" t="s">
+      <c r="FQ5" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="FQ5" s="67"/>
+      <c r="FR5" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="FS5" s="74"/>
+      <c r="FT5" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="FU5" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="FV5" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="FW5" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="FX5" s="78"/>
+      <c r="FY5" s="76"/>
+      <c r="FZ5" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="A1:FQ1"/>
-    <mergeCell ref="G2:AV2"/>
-    <mergeCell ref="AW2:CZ2"/>
-    <mergeCell ref="DA2:EG2"/>
-    <mergeCell ref="EH2:EY2"/>
-    <mergeCell ref="EZ2:FQ2"/>
+  <mergeCells count="72">
+    <mergeCell ref="A1:FX1"/>
+    <mergeCell ref="G2:AU2"/>
+    <mergeCell ref="AV2:DC2"/>
+    <mergeCell ref="DD2:EK2"/>
+    <mergeCell ref="EL2:FE2"/>
+    <mergeCell ref="FF2:FX2"/>
     <mergeCell ref="I3:Y3"/>
-    <mergeCell ref="Z3:AV3"/>
+    <mergeCell ref="Z3:AU3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="M4:X4"/>
     <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AD4:AP4"/>
-    <mergeCell ref="AQ4:AS4"/>
+    <mergeCell ref="AD4:AO4"/>
+    <mergeCell ref="AP4:AR4"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -3774,63 +3507,65 @@
     <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AS4:AS5"/>
     <mergeCell ref="AT4:AT5"/>
     <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AV4:AV5"/>
+    <mergeCell ref="AV3:AV5"/>
     <mergeCell ref="AW3:AW5"/>
-    <mergeCell ref="AX3:AX5"/>
-    <mergeCell ref="CG3:CG5"/>
+    <mergeCell ref="CF3:CF5"/>
+    <mergeCell ref="CJ3:CJ5"/>
     <mergeCell ref="CK3:CK5"/>
-    <mergeCell ref="CL3:CL5"/>
-    <mergeCell ref="CO3:CO5"/>
-    <mergeCell ref="EG3:EG5"/>
-    <mergeCell ref="EH3:EH5"/>
-    <mergeCell ref="EI3:EI5"/>
-    <mergeCell ref="EJ3:EJ5"/>
+    <mergeCell ref="CN3:CN5"/>
+    <mergeCell ref="DD3:DD5"/>
     <mergeCell ref="EK3:EK5"/>
     <mergeCell ref="EL3:EL5"/>
     <mergeCell ref="EM3:EM5"/>
-    <mergeCell ref="EZ3:EZ5"/>
-    <mergeCell ref="FA3:FA5"/>
-    <mergeCell ref="FB3:FB5"/>
-    <mergeCell ref="FC3:FC5"/>
-    <mergeCell ref="FD3:FD5"/>
-    <mergeCell ref="FE3:FE5"/>
+    <mergeCell ref="EN3:EN5"/>
+    <mergeCell ref="EO3:EO5"/>
+    <mergeCell ref="EP3:EP5"/>
+    <mergeCell ref="EQ3:EQ5"/>
+    <mergeCell ref="FF3:FF5"/>
+    <mergeCell ref="FG3:FG5"/>
+    <mergeCell ref="FH3:FH5"/>
+    <mergeCell ref="FI3:FI5"/>
+    <mergeCell ref="FJ3:FJ5"/>
+    <mergeCell ref="FK3:FK5"/>
     <mergeCell ref="FL3:FL5"/>
-    <mergeCell ref="FQ3:FQ5"/>
-    <mergeCell ref="BE3:BG4"/>
-    <mergeCell ref="BH3:BJ4"/>
-    <mergeCell ref="EW3:EY4"/>
-    <mergeCell ref="FF3:FH4"/>
-    <mergeCell ref="FI3:FK4"/>
-    <mergeCell ref="BP3:BQ4"/>
-    <mergeCell ref="BR3:BS4"/>
-    <mergeCell ref="CH3:CJ4"/>
-    <mergeCell ref="BK3:BO4"/>
-    <mergeCell ref="AY3:BD4"/>
-    <mergeCell ref="EN3:ER4"/>
-    <mergeCell ref="BT3:BZ4"/>
-    <mergeCell ref="CM3:CN4"/>
-    <mergeCell ref="CA3:CF4"/>
-    <mergeCell ref="CP3:CZ4"/>
-    <mergeCell ref="ES3:EV4"/>
-    <mergeCell ref="FM3:FP4"/>
-    <mergeCell ref="DH3:DQ4"/>
-    <mergeCell ref="DA3:DG4"/>
-    <mergeCell ref="DR3:EF4"/>
+    <mergeCell ref="FS3:FS5"/>
+    <mergeCell ref="FX3:FX5"/>
+    <mergeCell ref="FC3:FE4"/>
+    <mergeCell ref="CL3:CM4"/>
+    <mergeCell ref="BD3:BF4"/>
+    <mergeCell ref="BG3:BI4"/>
+    <mergeCell ref="ER3:EV4"/>
+    <mergeCell ref="EW3:FB4"/>
+    <mergeCell ref="BO3:BP4"/>
+    <mergeCell ref="BQ3:BR4"/>
+    <mergeCell ref="CG3:CI4"/>
+    <mergeCell ref="FM3:FO4"/>
+    <mergeCell ref="FP3:FR4"/>
+    <mergeCell ref="BJ3:BN4"/>
+    <mergeCell ref="AX3:BC4"/>
+    <mergeCell ref="BS3:BY4"/>
+    <mergeCell ref="BZ3:CE4"/>
+    <mergeCell ref="FT3:FW4"/>
+    <mergeCell ref="CO3:DC4"/>
+    <mergeCell ref="DL3:DU4"/>
+    <mergeCell ref="DE3:DK4"/>
+    <mergeCell ref="DV3:EJ4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EH3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="EL3">
       <formula1>"双分,整体"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FC3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FJ3">
       <formula1>"12-50普通,16-50,12-50套筒"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FQ3 FQ5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FR3 FS3">
+      <formula1>"T0,T1,T2,T3,点浇口,侧浇口"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FX3 FX5">
       <formula1>"正开模,倒开模"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="FK3 FL3">
-      <formula1>"T0,T1,T2,T3,点浇口,侧浇口"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
